--- a/harmonized_instruments.xlsx
+++ b/harmonized_instruments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Florida research\how ricardian are we\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B58257FC-48BF-4409-978F-2C1CF6A98A31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D514957B-B784-43CB-A3FA-F0B18260B6B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="194">
   <si>
     <t>money_aruobadrechsel</t>
   </si>
@@ -493,10 +493,130 @@
     <t>Version:</t>
   </si>
   <si>
-    <t>v03</t>
+    <t>Date:</t>
   </si>
   <si>
-    <t>Date:</t>
+    <t>Short Name</t>
+  </si>
+  <si>
+    <t>v03.1</t>
+  </si>
+  <si>
+    <t>Bauer-Swanson</t>
+  </si>
+  <si>
+    <t>Gertler-Karadi</t>
+  </si>
+  <si>
+    <t>Swanson FG</t>
+  </si>
+  <si>
+    <t>Swanson LSAP</t>
+  </si>
+  <si>
+    <t>Jarocinski-Karadi MPS</t>
+  </si>
+  <si>
+    <t>Jarocinski-Karadi CBI</t>
+  </si>
+  <si>
+    <t>Swanson FFR</t>
+  </si>
+  <si>
+    <t>Jarocinksi FFR</t>
+  </si>
+  <si>
+    <t>Jarocinksi FG</t>
+  </si>
+  <si>
+    <t>Jarocinksi LSAP</t>
+  </si>
+  <si>
+    <t>Jarocinksi Info</t>
+  </si>
+  <si>
+    <t>Miranda-Agrippino-Ricco</t>
+  </si>
+  <si>
+    <t>Aruoba-Drechsel</t>
+  </si>
+  <si>
+    <t>Fieldhouse-Mertens-Ravn</t>
+  </si>
+  <si>
+    <t>Romer-Romer MPS</t>
+  </si>
+  <si>
+    <t>Romer-Romer SS Perm</t>
+  </si>
+  <si>
+    <t>Romer-Romer SS Temp</t>
+  </si>
+  <si>
+    <t>Kanzig Oil</t>
+  </si>
+  <si>
+    <t>Baumeister-Hamilton Oil Inv D</t>
+  </si>
+  <si>
+    <t>Baumeister-Hamilton Oil Cons D</t>
+  </si>
+  <si>
+    <t>Baumeister-Hamilton Oil Sup</t>
+  </si>
+  <si>
+    <t>Adams-Barrett Infl Sent</t>
+  </si>
+  <si>
+    <t>Kim-Matthes-Phan Weather</t>
+  </si>
+  <si>
+    <t>Drechsel Fed PPS</t>
+  </si>
+  <si>
+    <t>Ramey News</t>
+  </si>
+  <si>
+    <t>Ben-Zeev-Papa</t>
+  </si>
+  <si>
+    <t>Fisher-Peters</t>
+  </si>
+  <si>
+    <t>Fieldhouse-Mertens RD Def</t>
+  </si>
+  <si>
+    <t>Fieldhouse-Mertens RD Nondef</t>
+  </si>
+  <si>
+    <t>Mertens-Ravn Tax Surp</t>
+  </si>
+  <si>
+    <t>Mertens-Ravn Tax News</t>
+  </si>
+  <si>
+    <t>Leeper-Richter-Walker</t>
+  </si>
+  <si>
+    <t>Lieb-et-al Tax News</t>
+  </si>
+  <si>
+    <t>Fernald TFP</t>
+  </si>
+  <si>
+    <t>Barsky-Sims</t>
+  </si>
+  <si>
+    <t>Ben-Zeev-Kahn IST Surp</t>
+  </si>
+  <si>
+    <t>Killian Oil</t>
+  </si>
+  <si>
+    <t>Ben-Zeev-Kahn TFP</t>
+  </si>
+  <si>
+    <t>Ben-Zeev-Kahn IST News</t>
   </si>
 </sst>
 </file>
@@ -919,19 +1039,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDA916B0-B64D-4F44-8F43-1AD77BC9AD6F}">
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.85546875" customWidth="1"/>
     <col min="2" max="2" width="39.5703125" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>146</v>
       </c>
@@ -939,7 +1060,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>147</v>
       </c>
@@ -947,7 +1068,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>149</v>
       </c>
@@ -955,23 +1076,23 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>151</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>152</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>153</v>
       </c>
       <c r="B5" s="7">
         <v>45765</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>23</v>
       </c>
@@ -981,21 +1102,24 @@
       <c r="C7" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -1005,8 +1129,11 @@
       <c r="C11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
@@ -1016,8 +1143,11 @@
       <c r="C12" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>89</v>
       </c>
@@ -1027,24 +1157,33 @@
       <c r="C13" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C14" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>94</v>
       </c>
@@ -1054,16 +1193,22 @@
       <c r="C16" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>95</v>
       </c>
       <c r="C17" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>143</v>
       </c>
@@ -1073,32 +1218,44 @@
       <c r="C18" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C19" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C20" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>144</v>
       </c>
       <c r="C21" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>91</v>
       </c>
@@ -1108,8 +1265,11 @@
       <c r="C22" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>90</v>
       </c>
@@ -1119,8 +1279,11 @@
       <c r="C23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>24</v>
       </c>
@@ -1130,8 +1293,11 @@
       <c r="C24" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>37</v>
       </c>
@@ -1141,8 +1307,11 @@
       <c r="C25" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>81</v>
       </c>
@@ -1152,8 +1321,11 @@
       <c r="C26" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
         <v>82</v>
@@ -1161,8 +1333,11 @@
       <c r="C27" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>35</v>
       </c>
@@ -1172,8 +1347,11 @@
       <c r="C28" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>75</v>
       </c>
@@ -1183,24 +1361,33 @@
       <c r="C29" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
         <v>76</v>
       </c>
       <c r="C30" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C31" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>79</v>
       </c>
@@ -1210,8 +1397,11 @@
       <c r="C32" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>100</v>
       </c>
@@ -1221,13 +1411,16 @@
       <c r="C33" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>32</v>
       </c>
@@ -1237,8 +1430,11 @@
       <c r="C37" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>63</v>
       </c>
@@ -1248,8 +1444,11 @@
       <c r="C38" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>38</v>
       </c>
@@ -1259,8 +1458,11 @@
       <c r="C39" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>40</v>
       </c>
@@ -1270,8 +1472,11 @@
       <c r="C40" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>56</v>
       </c>
@@ -1281,16 +1486,22 @@
       <c r="C41" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
         <v>58</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>43</v>
       </c>
@@ -1300,8 +1511,11 @@
       <c r="C43" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="B44" s="3" t="s">
         <v>46</v>
@@ -1309,8 +1523,11 @@
       <c r="C44" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>53</v>
       </c>
@@ -1320,8 +1537,11 @@
       <c r="C45" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>86</v>
       </c>
@@ -1331,8 +1551,11 @@
       <c r="C46" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>54</v>
       </c>
@@ -1342,8 +1565,11 @@
       <c r="C47" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>47</v>
       </c>
@@ -1353,8 +1579,11 @@
       <c r="C48" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>50</v>
       </c>
@@ -1364,24 +1593,33 @@
       <c r="C49" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B50" s="3" t="s">
         <v>51</v>
       </c>
       <c r="C50" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B51" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C51" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>84</v>
       </c>
@@ -1391,13 +1629,16 @@
       <c r="C52" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>66</v>
       </c>
@@ -1415,8 +1656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:X886"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/harmonized_instruments.xlsx
+++ b/harmonized_instruments.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j1jza01\Fed Reserve KC Dropbox\Jonathan Adams\Florida research\How Ricardian Are We\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952D0788-8FFB-43F0-B8E5-55C82130A0FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447EB4AF-AFF5-4484-95D7-2EFBD3549383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -517,18 +517,6 @@
     <t>Swanson FFR</t>
   </si>
   <si>
-    <t>Jarocinksi FFR</t>
-  </si>
-  <si>
-    <t>Jarocinksi FG</t>
-  </si>
-  <si>
-    <t>Jarocinksi LSAP</t>
-  </si>
-  <si>
-    <t>Jarocinksi Info</t>
-  </si>
-  <si>
     <t>Miranda-Agrippino-Ricco</t>
   </si>
   <si>
@@ -685,7 +673,19 @@
     <t>Phillot 30-year</t>
   </si>
   <si>
-    <t>v03.4</t>
+    <t>Jarocinski FFR</t>
+  </si>
+  <si>
+    <t>Jarocinski FG</t>
+  </si>
+  <si>
+    <t>Jarocinski LSAP</t>
+  </si>
+  <si>
+    <t>Jarocinski Info</t>
+  </si>
+  <si>
+    <t>v03.41</t>
   </si>
 </sst>
 </file>
@@ -1158,7 +1158,7 @@
         <v>151</v>
       </c>
       <c r="B5" s="7">
-        <v>45804</v>
+        <v>45821</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1288,7 +1288,7 @@
         <v>138</v>
       </c>
       <c r="D18" t="s">
-        <v>160</v>
+        <v>212</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1299,7 +1299,7 @@
         <v>139</v>
       </c>
       <c r="D19" t="s">
-        <v>161</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1310,7 +1310,7 @@
         <v>140</v>
       </c>
       <c r="D20" t="s">
-        <v>162</v>
+        <v>214</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1321,7 +1321,7 @@
         <v>141</v>
       </c>
       <c r="D21" t="s">
-        <v>163</v>
+        <v>215</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1329,52 +1329,52 @@
         <v>91</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C22" t="s">
         <v>92</v>
       </c>
       <c r="D22" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C23" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D23" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C24" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D24" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C25" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D25" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1402,7 +1402,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1416,7 +1416,7 @@
         <v>6</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1430,7 +1430,7 @@
         <v>67</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1442,57 +1442,57 @@
         <v>68</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C31" t="s">
+        <v>199</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="C31" t="s">
-        <v>203</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C32" t="s">
+        <v>200</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>209</v>
-      </c>
-      <c r="C32" t="s">
-        <v>204</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C33" t="s">
+        <v>201</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>210</v>
-      </c>
-      <c r="C33" t="s">
-        <v>205</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C34" t="s">
+        <v>202</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>211</v>
-      </c>
-      <c r="C34" t="s">
-        <v>206</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1506,7 +1506,7 @@
         <v>69</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1520,7 +1520,7 @@
         <v>72</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1531,7 +1531,7 @@
         <v>73</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1542,7 +1542,7 @@
         <v>74</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1556,7 +1556,7 @@
         <v>70</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1570,7 +1570,7 @@
         <v>98</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1589,7 +1589,7 @@
         <v>7</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1603,7 +1603,7 @@
         <v>8</v>
       </c>
       <c r="D45" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1617,7 +1617,7 @@
         <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1631,7 +1631,7 @@
         <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1645,7 +1645,7 @@
         <v>62</v>
       </c>
       <c r="D48" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1656,7 +1656,7 @@
         <v>61</v>
       </c>
       <c r="D49" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1670,7 +1670,7 @@
         <v>12</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1682,7 +1682,7 @@
         <v>13</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1696,7 +1696,7 @@
         <v>11</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1710,7 +1710,7 @@
         <v>88</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1724,7 +1724,7 @@
         <v>14</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -1738,7 +1738,7 @@
         <v>15</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -1752,7 +1752,7 @@
         <v>17</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1763,7 +1763,7 @@
         <v>16</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -1774,7 +1774,7 @@
         <v>18</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -1788,7 +1788,7 @@
         <v>71</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -1831,13 +1831,13 @@
         <v>102</v>
       </c>
       <c r="D1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G1" t="s">
         <v>103</v>
@@ -1903,16 +1903,16 @@
         <v>117</v>
       </c>
       <c r="AB1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="AC1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AD1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="AE1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">

--- a/harmonized_instruments.xlsx
+++ b/harmonized_instruments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j1jza01\Fed Reserve KC Dropbox\Jonathan Adams\Florida research\How Ricardian Are We\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447EB4AF-AFF5-4484-95D7-2EFBD3549383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59881480-CA5F-4551-8512-B1B6E851EDDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -302,9 +302,6 @@
   </si>
   <si>
     <t>tax_liebetal</t>
-  </si>
-  <si>
-    <t>Swanson (2023)</t>
   </si>
   <si>
     <t>Aruoba and Drechsel (2024)</t>
@@ -685,7 +682,10 @@
     <t>Jarocinski Info</t>
   </si>
   <si>
-    <t>v03.41</t>
+    <t>Swanson (2024)</t>
+  </si>
+  <si>
+    <t>v03.42</t>
   </si>
 </sst>
 </file>
@@ -1111,7 +1111,7 @@
   <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1123,31 +1123,31 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>148</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>216</v>
@@ -1155,10 +1155,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B5" s="7">
-        <v>45821</v>
+        <v>45824</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1172,7 +1172,7 @@
         <v>21</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1199,7 +1199,7 @@
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1213,12 +1213,12 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>89</v>
+        <v>215</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>27</v>
@@ -1227,7 +1227,7 @@
         <v>30</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1238,7 +1238,7 @@
         <v>3</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1249,46 +1249,46 @@
         <v>4</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" t="s">
         <v>95</v>
       </c>
-      <c r="C16" t="s">
-        <v>96</v>
-      </c>
       <c r="D16" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1296,10 +1296,10 @@
         <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1307,79 +1307,79 @@
         <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C22" t="s">
         <v>91</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C22" t="s">
-        <v>92</v>
-      </c>
       <c r="D22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>188</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C23" t="s">
+        <v>187</v>
+      </c>
+      <c r="D23" t="s">
         <v>189</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C23" t="s">
-        <v>188</v>
-      </c>
-      <c r="D23" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>191</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C24" t="s">
+        <v>196</v>
+      </c>
+      <c r="D24" t="s">
         <v>192</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="C24" t="s">
-        <v>197</v>
-      </c>
-      <c r="D24" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>31</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1402,7 +1402,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1416,7 +1416,7 @@
         <v>6</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1430,7 +1430,7 @@
         <v>67</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1442,57 +1442,57 @@
         <v>68</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>204</v>
-      </c>
       <c r="C31" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C33" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C34" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1506,7 +1506,7 @@
         <v>69</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1520,7 +1520,7 @@
         <v>72</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1531,7 +1531,7 @@
         <v>73</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1542,7 +1542,7 @@
         <v>74</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1556,21 +1556,21 @@
         <v>70</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>98</v>
+      </c>
+      <c r="B40" t="s">
         <v>99</v>
       </c>
-      <c r="B40" t="s">
-        <v>100</v>
-      </c>
       <c r="C40" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1589,7 +1589,7 @@
         <v>7</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1603,7 +1603,7 @@
         <v>8</v>
       </c>
       <c r="D45" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1617,7 +1617,7 @@
         <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1631,7 +1631,7 @@
         <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1645,7 +1645,7 @@
         <v>62</v>
       </c>
       <c r="D48" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1656,7 +1656,7 @@
         <v>61</v>
       </c>
       <c r="D49" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1670,7 +1670,7 @@
         <v>12</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1682,7 +1682,7 @@
         <v>13</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1696,7 +1696,7 @@
         <v>11</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1710,7 +1710,7 @@
         <v>88</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1724,7 +1724,7 @@
         <v>14</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -1738,7 +1738,7 @@
         <v>15</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -1752,7 +1752,7 @@
         <v>17</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1763,7 +1763,7 @@
         <v>16</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -1774,7 +1774,7 @@
         <v>18</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -1788,7 +1788,7 @@
         <v>71</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -1822,97 +1822,97 @@
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" t="s">
         <v>101</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J1" t="s">
+        <v>140</v>
+      </c>
+      <c r="K1" t="s">
+        <v>139</v>
+      </c>
+      <c r="L1" t="s">
+        <v>119</v>
+      </c>
+      <c r="M1" t="s">
+        <v>118</v>
+      </c>
+      <c r="N1" t="s">
+        <v>117</v>
+      </c>
+      <c r="O1" t="s">
         <v>107</v>
       </c>
-      <c r="C1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D1" t="s">
-        <v>197</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="P1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>104</v>
+      </c>
+      <c r="R1" t="s">
+        <v>105</v>
+      </c>
+      <c r="S1" t="s">
+        <v>108</v>
+      </c>
+      <c r="T1" t="s">
+        <v>109</v>
+      </c>
+      <c r="U1" t="s">
+        <v>110</v>
+      </c>
+      <c r="V1" t="s">
+        <v>113</v>
+      </c>
+      <c r="W1" t="s">
+        <v>114</v>
+      </c>
+      <c r="X1" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB1" t="s">
         <v>198</v>
       </c>
-      <c r="F1" t="s">
-        <v>188</v>
-      </c>
-      <c r="G1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H1" t="s">
-        <v>138</v>
-      </c>
-      <c r="I1" t="s">
-        <v>139</v>
-      </c>
-      <c r="J1" t="s">
-        <v>141</v>
-      </c>
-      <c r="K1" t="s">
-        <v>140</v>
-      </c>
-      <c r="L1" t="s">
-        <v>120</v>
-      </c>
-      <c r="M1" t="s">
-        <v>119</v>
-      </c>
-      <c r="N1" t="s">
-        <v>118</v>
-      </c>
-      <c r="O1" t="s">
-        <v>108</v>
-      </c>
-      <c r="P1" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>105</v>
-      </c>
-      <c r="R1" t="s">
-        <v>106</v>
-      </c>
-      <c r="S1" t="s">
-        <v>109</v>
-      </c>
-      <c r="T1" t="s">
-        <v>110</v>
-      </c>
-      <c r="U1" t="s">
-        <v>111</v>
-      </c>
-      <c r="V1" t="s">
-        <v>114</v>
-      </c>
-      <c r="W1" t="s">
-        <v>115</v>
-      </c>
-      <c r="X1" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>116</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>199</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>200</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>201</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
@@ -40382,55 +40382,55 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" t="s">
         <v>121</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G1" t="s">
         <v>122</v>
       </c>
-      <c r="C1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J1" t="s">
+        <v>128</v>
+      </c>
+      <c r="K1" t="s">
         <v>127</v>
       </c>
-      <c r="F1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G1" t="s">
-        <v>123</v>
-      </c>
-      <c r="H1" t="s">
-        <v>130</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
+        <v>132</v>
+      </c>
+      <c r="M1" t="s">
+        <v>133</v>
+      </c>
+      <c r="N1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O1" t="s">
+        <v>135</v>
+      </c>
+      <c r="P1" t="s">
         <v>131</v>
       </c>
-      <c r="J1" t="s">
-        <v>129</v>
-      </c>
-      <c r="K1" t="s">
-        <v>128</v>
-      </c>
-      <c r="L1" t="s">
-        <v>133</v>
-      </c>
-      <c r="M1" t="s">
-        <v>134</v>
-      </c>
-      <c r="N1" t="s">
-        <v>135</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>136</v>
-      </c>
-      <c r="P1" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">

--- a/harmonized_instruments.xlsx
+++ b/harmonized_instruments.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="287" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="337" uniqueCount="222">
   <si>
     <t>money_aruobadrechsel</t>
   </si>
@@ -30851,9 +30851,7 @@
       <c r="C543">
         <v>0</v>
       </c>
-      <c r="D543">
-        <v>0</v>
-      </c>
+      <c r="D543"/>
       <c r="E543"/>
       <c r="F543"/>
       <c r="G543"/>
@@ -31009,9 +31007,7 @@
       <c r="C545">
         <v>0</v>
       </c>
-      <c r="D545">
-        <v>0</v>
-      </c>
+      <c r="D545"/>
       <c r="E545"/>
       <c r="F545"/>
       <c r="G545"/>
@@ -31167,9 +31163,7 @@
       <c r="C547">
         <v>0</v>
       </c>
-      <c r="D547">
-        <v>0</v>
-      </c>
+      <c r="D547"/>
       <c r="E547"/>
       <c r="F547"/>
       <c r="G547"/>
@@ -31236,9 +31230,7 @@
       <c r="C548">
         <v>-0.01862185867252324</v>
       </c>
-      <c r="D548">
-        <v>0</v>
-      </c>
+      <c r="D548"/>
       <c r="E548">
         <v>-0.022721618413925171</v>
       </c>
@@ -31503,9 +31495,7 @@
       <c r="C551">
         <v>0</v>
       </c>
-      <c r="D551">
-        <v>0</v>
-      </c>
+      <c r="D551"/>
       <c r="E551"/>
       <c r="F551"/>
       <c r="G551"/>
@@ -31750,9 +31740,7 @@
       <c r="C554">
         <v>0</v>
       </c>
-      <c r="D554">
-        <v>0</v>
-      </c>
+      <c r="D554"/>
       <c r="E554"/>
       <c r="F554"/>
       <c r="G554"/>
@@ -31997,9 +31985,7 @@
       <c r="C557">
         <v>0</v>
       </c>
-      <c r="D557">
-        <v>0</v>
-      </c>
+      <c r="D557"/>
       <c r="E557"/>
       <c r="F557"/>
       <c r="G557"/>
@@ -32155,9 +32141,7 @@
       <c r="C559">
         <v>0</v>
       </c>
-      <c r="D559">
-        <v>0</v>
-      </c>
+      <c r="D559"/>
       <c r="E559"/>
       <c r="F559"/>
       <c r="G559"/>
@@ -32491,9 +32475,7 @@
       <c r="C563">
         <v>0</v>
       </c>
-      <c r="D563">
-        <v>0</v>
-      </c>
+      <c r="D563"/>
       <c r="E563"/>
       <c r="F563"/>
       <c r="G563"/>
@@ -32738,9 +32720,7 @@
       <c r="C566">
         <v>0</v>
       </c>
-      <c r="D566">
-        <v>0</v>
-      </c>
+      <c r="D566"/>
       <c r="E566"/>
       <c r="F566"/>
       <c r="G566"/>
@@ -32985,9 +32965,7 @@
       <c r="C569">
         <v>0</v>
       </c>
-      <c r="D569">
-        <v>0</v>
-      </c>
+      <c r="D569"/>
       <c r="E569"/>
       <c r="F569"/>
       <c r="G569"/>
@@ -33143,9 +33121,7 @@
       <c r="C571">
         <v>0</v>
       </c>
-      <c r="D571">
-        <v>0</v>
-      </c>
+      <c r="D571"/>
       <c r="E571"/>
       <c r="F571"/>
       <c r="G571"/>
@@ -33212,9 +33188,7 @@
       <c r="C572">
         <v>0.019040923526669876</v>
       </c>
-      <c r="D572">
-        <v>0</v>
-      </c>
+      <c r="D572"/>
       <c r="E572">
         <v>0.012392386794090271</v>
       </c>
@@ -33764,9 +33738,7 @@
       <c r="C578">
         <v>0</v>
       </c>
-      <c r="D578">
-        <v>0</v>
-      </c>
+      <c r="D578"/>
       <c r="E578"/>
       <c r="F578"/>
       <c r="G578"/>
@@ -34035,9 +34007,7 @@
       <c r="C581">
         <v>0</v>
       </c>
-      <c r="D581">
-        <v>0</v>
-      </c>
+      <c r="D581"/>
       <c r="E581"/>
       <c r="F581"/>
       <c r="G581"/>
@@ -34306,9 +34276,7 @@
       <c r="C584">
         <v>0</v>
       </c>
-      <c r="D584">
-        <v>0</v>
-      </c>
+      <c r="D584"/>
       <c r="E584"/>
       <c r="F584"/>
       <c r="G584"/>
@@ -34480,9 +34448,7 @@
       <c r="C586">
         <v>0</v>
       </c>
-      <c r="D586">
-        <v>0</v>
-      </c>
+      <c r="D586"/>
       <c r="E586"/>
       <c r="F586"/>
       <c r="G586"/>
@@ -34848,9 +34814,7 @@
       <c r="C590">
         <v>0</v>
       </c>
-      <c r="D590">
-        <v>0</v>
-      </c>
+      <c r="D590"/>
       <c r="E590"/>
       <c r="F590"/>
       <c r="G590"/>
@@ -35119,9 +35083,7 @@
       <c r="C593">
         <v>0</v>
       </c>
-      <c r="D593">
-        <v>0</v>
-      </c>
+      <c r="D593"/>
       <c r="E593"/>
       <c r="F593"/>
       <c r="G593"/>
@@ -35390,9 +35352,7 @@
       <c r="C596">
         <v>0</v>
       </c>
-      <c r="D596">
-        <v>0</v>
-      </c>
+      <c r="D596"/>
       <c r="E596"/>
       <c r="F596"/>
       <c r="G596"/>
@@ -35564,9 +35524,7 @@
       <c r="C598">
         <v>0</v>
       </c>
-      <c r="D598">
-        <v>0</v>
-      </c>
+      <c r="D598"/>
       <c r="E598"/>
       <c r="F598"/>
       <c r="G598"/>
@@ -36029,9 +35987,7 @@
       <c r="C603">
         <v>0</v>
       </c>
-      <c r="D603">
-        <v>0</v>
-      </c>
+      <c r="D603"/>
       <c r="E603"/>
       <c r="F603"/>
       <c r="G603"/>
@@ -36106,9 +36062,7 @@
       <c r="C604">
         <v>-0.00072161250394339738</v>
       </c>
-      <c r="D604">
-        <v>0</v>
-      </c>
+      <c r="D604"/>
       <c r="E604">
         <v>0.0019138345960527658</v>
       </c>
@@ -36203,9 +36157,7 @@
       <c r="C605">
         <v>-0.21391063347156886</v>
       </c>
-      <c r="D605">
-        <v>0</v>
-      </c>
+      <c r="D605"/>
       <c r="E605"/>
       <c r="F605"/>
       <c r="G605"/>
@@ -36488,9 +36440,7 @@
       <c r="C608">
         <v>0</v>
       </c>
-      <c r="D608">
-        <v>0</v>
-      </c>
+      <c r="D608"/>
       <c r="E608"/>
       <c r="F608"/>
       <c r="G608"/>
@@ -36565,9 +36515,7 @@
       <c r="C609">
         <v>0.011538394805468734</v>
       </c>
-      <c r="D609">
-        <v>0</v>
-      </c>
+      <c r="D609"/>
       <c r="E609">
         <v>-0.014400391839444637</v>
       </c>
@@ -36662,9 +36610,7 @@
       <c r="C610">
         <v>0</v>
       </c>
-      <c r="D610">
-        <v>0</v>
-      </c>
+      <c r="D610"/>
       <c r="E610"/>
       <c r="F610"/>
       <c r="G610"/>
@@ -37127,9 +37073,7 @@
       <c r="C615">
         <v>0</v>
       </c>
-      <c r="D615">
-        <v>0</v>
-      </c>
+      <c r="D615"/>
       <c r="E615"/>
       <c r="F615"/>
       <c r="G615"/>
@@ -37301,9 +37245,7 @@
       <c r="C617">
         <v>0</v>
       </c>
-      <c r="D617">
-        <v>0</v>
-      </c>
+      <c r="D617"/>
       <c r="E617"/>
       <c r="F617"/>
       <c r="G617"/>
@@ -37572,9 +37514,7 @@
       <c r="C620">
         <v>0</v>
       </c>
-      <c r="D620">
-        <v>0</v>
-      </c>
+      <c r="D620"/>
       <c r="E620"/>
       <c r="F620"/>
       <c r="G620"/>
@@ -37843,9 +37783,7 @@
       <c r="C623">
         <v>0</v>
       </c>
-      <c r="D623">
-        <v>0</v>
-      </c>
+      <c r="D623"/>
       <c r="E623"/>
       <c r="F623"/>
       <c r="G623"/>
@@ -38211,9 +38149,7 @@
       <c r="C627">
         <v>0</v>
       </c>
-      <c r="D627">
-        <v>0</v>
-      </c>
+      <c r="D627"/>
       <c r="E627"/>
       <c r="F627"/>
       <c r="G627"/>
@@ -38385,9 +38321,7 @@
       <c r="C629">
         <v>0</v>
       </c>
-      <c r="D629">
-        <v>0</v>
-      </c>
+      <c r="D629"/>
       <c r="E629"/>
       <c r="F629"/>
       <c r="G629"/>
@@ -38656,9 +38590,7 @@
       <c r="C632">
         <v>0</v>
       </c>
-      <c r="D632">
-        <v>0</v>
-      </c>
+      <c r="D632"/>
       <c r="E632"/>
       <c r="F632"/>
       <c r="G632"/>
@@ -39024,9 +38956,7 @@
       <c r="C636">
         <v>0</v>
       </c>
-      <c r="D636">
-        <v>0</v>
-      </c>
+      <c r="D636"/>
       <c r="E636"/>
       <c r="F636"/>
       <c r="G636"/>
@@ -39295,9 +39225,7 @@
       <c r="C639">
         <v>0</v>
       </c>
-      <c r="D639">
-        <v>0</v>
-      </c>
+      <c r="D639"/>
       <c r="E639"/>
       <c r="F639"/>
       <c r="G639"/>
@@ -39469,9 +39397,7 @@
       <c r="C641">
         <v>0</v>
       </c>
-      <c r="D641">
-        <v>0</v>
-      </c>
+      <c r="D641"/>
       <c r="E641"/>
       <c r="F641"/>
       <c r="G641"/>
@@ -39740,9 +39666,7 @@
       <c r="C644">
         <v>0</v>
       </c>
-      <c r="D644">
-        <v>0</v>
-      </c>
+      <c r="D644"/>
       <c r="E644"/>
       <c r="F644"/>
       <c r="G644"/>
@@ -40011,9 +39935,7 @@
       <c r="C647">
         <v>0</v>
       </c>
-      <c r="D647">
-        <v>0</v>
-      </c>
+      <c r="D647"/>
       <c r="E647"/>
       <c r="F647"/>
       <c r="G647"/>
@@ -40282,9 +40204,7 @@
       <c r="C650">
         <v>0</v>
       </c>
-      <c r="D650">
-        <v>0</v>
-      </c>
+      <c r="D650"/>
       <c r="E650"/>
       <c r="F650"/>
       <c r="G650"/>
@@ -40553,9 +40473,7 @@
       <c r="C653">
         <v>0</v>
       </c>
-      <c r="D653">
-        <v>0</v>
-      </c>
+      <c r="D653"/>
       <c r="E653"/>
       <c r="F653"/>
       <c r="G653"/>
@@ -40824,9 +40742,7 @@
       <c r="C656">
         <v>0</v>
       </c>
-      <c r="D656">
-        <v>0</v>
-      </c>
+      <c r="D656"/>
       <c r="E656"/>
       <c r="F656"/>
       <c r="G656"/>
@@ -41095,9 +41011,7 @@
       <c r="C659">
         <v>0</v>
       </c>
-      <c r="D659">
-        <v>0</v>
-      </c>
+      <c r="D659"/>
       <c r="E659"/>
       <c r="F659"/>
       <c r="G659"/>
@@ -41463,9 +41377,7 @@
       <c r="C663">
         <v>0</v>
       </c>
-      <c r="D663">
-        <v>0</v>
-      </c>
+      <c r="D663"/>
       <c r="E663"/>
       <c r="F663"/>
       <c r="G663"/>
@@ -41637,9 +41549,7 @@
       <c r="C665">
         <v>0</v>
       </c>
-      <c r="D665">
-        <v>0</v>
-      </c>
+      <c r="D665"/>
       <c r="E665"/>
       <c r="F665"/>
       <c r="G665"/>
@@ -41908,9 +41818,7 @@
       <c r="C668">
         <v>0</v>
       </c>
-      <c r="D668">
-        <v>0</v>
-      </c>
+      <c r="D668"/>
       <c r="E668"/>
       <c r="F668"/>
       <c r="G668"/>
@@ -42276,9 +42184,7 @@
       <c r="C672">
         <v>0</v>
       </c>
-      <c r="D672">
-        <v>0</v>
-      </c>
+      <c r="D672"/>
       <c r="E672"/>
       <c r="F672"/>
       <c r="G672"/>
@@ -42547,9 +42453,7 @@
       <c r="C675">
         <v>0</v>
       </c>
-      <c r="D675">
-        <v>0</v>
-      </c>
+      <c r="D675"/>
       <c r="E675"/>
       <c r="F675"/>
       <c r="G675"/>
@@ -42721,9 +42625,7 @@
       <c r="C677">
         <v>0</v>
       </c>
-      <c r="D677">
-        <v>0</v>
-      </c>
+      <c r="D677"/>
       <c r="E677"/>
       <c r="F677"/>
       <c r="G677"/>
@@ -42992,9 +42894,7 @@
       <c r="C680">
         <v>0</v>
       </c>
-      <c r="D680">
-        <v>0</v>
-      </c>
+      <c r="D680"/>
       <c r="E680"/>
       <c r="F680"/>
       <c r="G680"/>
@@ -43360,9 +43260,7 @@
       <c r="C684">
         <v>0</v>
       </c>
-      <c r="D684">
-        <v>0</v>
-      </c>
+      <c r="D684"/>
       <c r="E684"/>
       <c r="F684"/>
       <c r="G684"/>
@@ -43629,9 +43527,7 @@
       <c r="C687">
         <v>0</v>
       </c>
-      <c r="D687">
-        <v>0</v>
-      </c>
+      <c r="D687"/>
       <c r="E687"/>
       <c r="F687"/>
       <c r="G687"/>
@@ -43894,9 +43790,7 @@
       <c r="C690">
         <v>0</v>
       </c>
-      <c r="D690">
-        <v>0</v>
-      </c>
+      <c r="D690"/>
       <c r="E690"/>
       <c r="F690"/>
       <c r="G690"/>
@@ -44064,9 +43958,7 @@
       <c r="C692">
         <v>0</v>
       </c>
-      <c r="D692">
-        <v>0</v>
-      </c>
+      <c r="D692"/>
       <c r="E692"/>
       <c r="F692"/>
       <c r="G692"/>
@@ -44234,9 +44126,7 @@
       <c r="C694">
         <v>0.18647894111295449</v>
       </c>
-      <c r="D694">
-        <v>0</v>
-      </c>
+      <c r="D694"/>
       <c r="E694">
         <v>0.027812020853161812</v>
       </c>
@@ -44689,9 +44579,7 @@
       <c r="C699">
         <v>0</v>
       </c>
-      <c r="D699">
-        <v>0</v>
-      </c>
+      <c r="D699"/>
       <c r="E699"/>
       <c r="F699"/>
       <c r="G699"/>
@@ -44948,9 +44836,7 @@
       <c r="C702">
         <v>0</v>
       </c>
-      <c r="D702">
-        <v>0</v>
-      </c>
+      <c r="D702"/>
       <c r="E702"/>
       <c r="F702"/>
       <c r="G702"/>
@@ -45114,9 +45000,7 @@
       <c r="C704">
         <v>0</v>
       </c>
-      <c r="D704">
-        <v>0</v>
-      </c>
+      <c r="D704"/>
       <c r="E704"/>
       <c r="F704"/>
       <c r="G704"/>
@@ -45373,9 +45257,7 @@
       <c r="C707">
         <v>0</v>
       </c>
-      <c r="D707">
-        <v>0</v>
-      </c>
+      <c r="D707"/>
       <c r="E707"/>
       <c r="F707"/>
       <c r="G707"/>
@@ -45723,9 +45605,7 @@
       <c r="C711">
         <v>0</v>
       </c>
-      <c r="D711">
-        <v>0</v>
-      </c>
+      <c r="D711"/>
       <c r="E711"/>
       <c r="F711"/>
       <c r="G711"/>
@@ -45976,9 +45856,7 @@
       <c r="C714">
         <v>0</v>
       </c>
-      <c r="D714">
-        <v>0</v>
-      </c>
+      <c r="D714"/>
       <c r="E714"/>
       <c r="F714"/>
       <c r="G714"/>
@@ -46138,9 +46016,7 @@
       <c r="C716">
         <v>0</v>
       </c>
-      <c r="D716">
-        <v>0</v>
-      </c>
+      <c r="D716"/>
       <c r="E716"/>
       <c r="F716"/>
       <c r="G716"/>
@@ -46391,9 +46267,7 @@
       <c r="C719">
         <v>0</v>
       </c>
-      <c r="D719">
-        <v>0</v>
-      </c>
+      <c r="D719"/>
       <c r="E719"/>
       <c r="F719"/>
       <c r="G719"/>
@@ -46735,9 +46609,7 @@
       <c r="C723">
         <v>0</v>
       </c>
-      <c r="D723">
-        <v>0</v>
-      </c>
+      <c r="D723"/>
       <c r="E723"/>
       <c r="F723"/>
       <c r="G723"/>
@@ -46988,9 +46860,7 @@
       <c r="C726">
         <v>0</v>
       </c>
-      <c r="D726">
-        <v>0</v>
-      </c>
+      <c r="D726"/>
       <c r="E726"/>
       <c r="F726"/>
       <c r="G726"/>
@@ -47150,9 +47020,7 @@
       <c r="C728">
         <v>0</v>
       </c>
-      <c r="D728">
-        <v>0</v>
-      </c>
+      <c r="D728"/>
       <c r="E728"/>
       <c r="F728"/>
       <c r="G728"/>
@@ -47403,9 +47271,7 @@
       <c r="C731">
         <v>0</v>
       </c>
-      <c r="D731">
-        <v>0</v>
-      </c>
+      <c r="D731"/>
       <c r="E731"/>
       <c r="F731"/>
       <c r="G731"/>
@@ -47747,9 +47613,7 @@
       <c r="C735">
         <v>0</v>
       </c>
-      <c r="D735">
-        <v>0</v>
-      </c>
+      <c r="D735"/>
       <c r="E735"/>
       <c r="F735"/>
       <c r="G735"/>
@@ -48000,9 +47864,7 @@
       <c r="C738">
         <v>0</v>
       </c>
-      <c r="D738">
-        <v>0</v>
-      </c>
+      <c r="D738"/>
       <c r="E738"/>
       <c r="F738"/>
       <c r="G738"/>
@@ -48162,9 +48024,7 @@
       <c r="C740">
         <v>0</v>
       </c>
-      <c r="D740">
-        <v>0</v>
-      </c>
+      <c r="D740"/>
       <c r="E740"/>
       <c r="F740"/>
       <c r="G740"/>
@@ -48498,9 +48358,7 @@
       <c r="C744">
         <v>0</v>
       </c>
-      <c r="D744">
-        <v>0</v>
-      </c>
+      <c r="D744"/>
       <c r="E744"/>
       <c r="F744"/>
       <c r="G744"/>
@@ -48745,9 +48603,7 @@
       <c r="C747">
         <v>0</v>
       </c>
-      <c r="D747">
-        <v>0</v>
-      </c>
+      <c r="D747"/>
       <c r="E747"/>
       <c r="F747"/>
       <c r="G747"/>
@@ -48903,9 +48759,7 @@
       <c r="C749">
         <v>0</v>
       </c>
-      <c r="D749">
-        <v>0</v>
-      </c>
+      <c r="D749"/>
       <c r="E749"/>
       <c r="F749"/>
       <c r="G749"/>
@@ -49239,9 +49093,7 @@
       <c r="C753">
         <v>0</v>
       </c>
-      <c r="D753">
-        <v>0</v>
-      </c>
+      <c r="D753"/>
       <c r="E753"/>
       <c r="F753"/>
       <c r="G753"/>
@@ -49486,9 +49338,7 @@
       <c r="C756">
         <v>0</v>
       </c>
-      <c r="D756">
-        <v>0</v>
-      </c>
+      <c r="D756"/>
       <c r="E756"/>
       <c r="F756"/>
       <c r="G756"/>
@@ -49733,9 +49583,7 @@
       <c r="C759">
         <v>0</v>
       </c>
-      <c r="D759">
-        <v>0</v>
-      </c>
+      <c r="D759"/>
       <c r="E759"/>
       <c r="F759"/>
       <c r="G759"/>
@@ -49980,9 +49828,7 @@
       <c r="C762">
         <v>0</v>
       </c>
-      <c r="D762">
-        <v>0</v>
-      </c>
+      <c r="D762"/>
       <c r="E762"/>
       <c r="F762"/>
       <c r="G762"/>
@@ -50227,9 +50073,7 @@
       <c r="C765">
         <v>0</v>
       </c>
-      <c r="D765">
-        <v>0</v>
-      </c>
+      <c r="D765"/>
       <c r="E765"/>
       <c r="F765"/>
       <c r="G765"/>
@@ -50474,9 +50318,7 @@
       <c r="C768">
         <v>0</v>
       </c>
-      <c r="D768">
-        <v>0</v>
-      </c>
+      <c r="D768"/>
       <c r="E768"/>
       <c r="F768"/>
       <c r="G768"/>
@@ -50719,9 +50561,7 @@
       <c r="C771">
         <v>0</v>
       </c>
-      <c r="D771">
-        <v>0</v>
-      </c>
+      <c r="D771"/>
       <c r="E771"/>
       <c r="F771"/>
       <c r="G771"/>
@@ -50960,9 +50800,7 @@
       <c r="C774">
         <v>0</v>
       </c>
-      <c r="D774">
-        <v>0</v>
-      </c>
+      <c r="D774"/>
       <c r="E774"/>
       <c r="F774"/>
       <c r="G774"/>
@@ -51201,9 +51039,7 @@
       <c r="C777">
         <v>0</v>
       </c>
-      <c r="D777">
-        <v>0</v>
-      </c>
+      <c r="D777"/>
       <c r="E777"/>
       <c r="F777"/>
       <c r="G777"/>
@@ -51442,9 +51278,7 @@
       <c r="C780">
         <v>0</v>
       </c>
-      <c r="D780">
-        <v>0</v>
-      </c>
+      <c r="D780"/>
       <c r="E780"/>
       <c r="F780"/>
       <c r="G780"/>
@@ -51683,9 +51517,7 @@
       <c r="C783">
         <v>0</v>
       </c>
-      <c r="D783">
-        <v>0</v>
-      </c>
+      <c r="D783"/>
       <c r="E783"/>
       <c r="F783"/>
       <c r="G783"/>
@@ -51924,9 +51756,7 @@
       <c r="C786">
         <v>0</v>
       </c>
-      <c r="D786">
-        <v>0</v>
-      </c>
+      <c r="D786"/>
       <c r="E786"/>
       <c r="F786"/>
       <c r="G786"/>
@@ -52165,9 +51995,7 @@
       <c r="C789">
         <v>0</v>
       </c>
-      <c r="D789">
-        <v>0</v>
-      </c>
+      <c r="D789"/>
       <c r="E789"/>
       <c r="F789"/>
       <c r="G789"/>
@@ -52319,9 +52147,7 @@
       <c r="C791">
         <v>0</v>
       </c>
-      <c r="D791">
-        <v>0</v>
-      </c>
+      <c r="D791"/>
       <c r="E791"/>
       <c r="F791"/>
       <c r="G791"/>
@@ -52560,9 +52386,7 @@
       <c r="C794">
         <v>0</v>
       </c>
-      <c r="D794">
-        <v>0</v>
-      </c>
+      <c r="D794"/>
       <c r="E794"/>
       <c r="F794"/>
       <c r="G794"/>
@@ -52801,9 +52625,7 @@
       <c r="C797">
         <v>0</v>
       </c>
-      <c r="D797">
-        <v>0</v>
-      </c>
+      <c r="D797"/>
       <c r="E797"/>
       <c r="F797"/>
       <c r="G797"/>
@@ -53129,9 +52951,7 @@
       <c r="C801">
         <v>0</v>
       </c>
-      <c r="D801">
-        <v>0</v>
-      </c>
+      <c r="D801"/>
       <c r="E801"/>
       <c r="F801"/>
       <c r="G801"/>
@@ -53283,9 +53103,7 @@
       <c r="C803">
         <v>0</v>
       </c>
-      <c r="D803">
-        <v>0</v>
-      </c>
+      <c r="D803"/>
       <c r="E803"/>
       <c r="F803"/>
       <c r="G803"/>
@@ -53611,9 +53429,7 @@
       <c r="C807">
         <v>0</v>
       </c>
-      <c r="D807">
-        <v>0</v>
-      </c>
+      <c r="D807"/>
       <c r="E807"/>
       <c r="F807"/>
       <c r="G807"/>
@@ -53765,9 +53581,7 @@
       <c r="C809">
         <v>0</v>
       </c>
-      <c r="D809">
-        <v>0</v>
-      </c>
+      <c r="D809"/>
       <c r="E809"/>
       <c r="F809"/>
       <c r="G809"/>
@@ -54006,9 +53820,7 @@
       <c r="C812">
         <v>0</v>
       </c>
-      <c r="D812">
-        <v>0</v>
-      </c>
+      <c r="D812"/>
       <c r="E812"/>
       <c r="F812"/>
       <c r="G812"/>
@@ -54247,9 +54059,7 @@
       <c r="C815">
         <v>0</v>
       </c>
-      <c r="D815">
-        <v>0</v>
-      </c>
+      <c r="D815"/>
       <c r="E815"/>
       <c r="F815"/>
       <c r="G815"/>
@@ -54575,9 +54385,7 @@
       <c r="C819">
         <v>0</v>
       </c>
-      <c r="D819">
-        <v>0</v>
-      </c>
+      <c r="D819"/>
       <c r="E819"/>
       <c r="F819"/>
       <c r="G819"/>
@@ -54729,9 +54537,7 @@
       <c r="C821">
         <v>0</v>
       </c>
-      <c r="D821">
-        <v>0</v>
-      </c>
+      <c r="D821"/>
       <c r="E821"/>
       <c r="F821"/>
       <c r="G821"/>
@@ -55049,9 +54855,7 @@
       <c r="C825">
         <v>0</v>
       </c>
-      <c r="D825">
-        <v>0</v>
-      </c>
+      <c r="D825"/>
       <c r="E825"/>
       <c r="F825"/>
       <c r="G825"/>
@@ -55276,9 +55080,7 @@
       <c r="C828">
         <v>0</v>
       </c>
-      <c r="D828">
-        <v>0</v>
-      </c>
+      <c r="D828"/>
       <c r="E828"/>
       <c r="F828"/>
       <c r="G828"/>
@@ -55503,9 +55305,7 @@
       <c r="C831">
         <v>0</v>
       </c>
-      <c r="D831">
-        <v>0</v>
-      </c>
+      <c r="D831"/>
       <c r="E831"/>
       <c r="F831"/>
       <c r="G831"/>
@@ -55706,9 +55506,7 @@
       <c r="C834">
         <v>0</v>
       </c>
-      <c r="D834">
-        <v>0</v>
-      </c>
+      <c r="D834"/>
       <c r="E834"/>
       <c r="F834"/>
       <c r="G834"/>
@@ -55909,9 +55707,7 @@
       <c r="C837">
         <v>0.018323456522269001</v>
       </c>
-      <c r="D837">
-        <v>0</v>
-      </c>
+      <c r="D837"/>
       <c r="E837"/>
       <c r="F837"/>
       <c r="G837"/>
@@ -56045,9 +55841,7 @@
       <c r="C839">
         <v>0</v>
       </c>
-      <c r="D839">
-        <v>0</v>
-      </c>
+      <c r="D839"/>
       <c r="E839"/>
       <c r="F839"/>
       <c r="G839"/>
@@ -56321,9 +56115,7 @@
       <c r="C843">
         <v>0</v>
       </c>
-      <c r="D843">
-        <v>0</v>
-      </c>
+      <c r="D843"/>
       <c r="E843"/>
       <c r="F843"/>
       <c r="G843"/>
@@ -56524,9 +56316,7 @@
       <c r="C846">
         <v>0</v>
       </c>
-      <c r="D846">
-        <v>0</v>
-      </c>
+      <c r="D846"/>
       <c r="E846"/>
       <c r="F846"/>
       <c r="G846"/>
@@ -56727,9 +56517,7 @@
       <c r="C849">
         <v>0</v>
       </c>
-      <c r="D849">
-        <v>0</v>
-      </c>
+      <c r="D849"/>
       <c r="E849"/>
       <c r="F849"/>
       <c r="G849"/>
@@ -56857,9 +56645,7 @@
       <c r="C851">
         <v>0</v>
       </c>
-      <c r="D851">
-        <v>0</v>
-      </c>
+      <c r="D851"/>
       <c r="E851"/>
       <c r="F851"/>
       <c r="G851"/>
@@ -57133,9 +56919,7 @@
       <c r="C855">
         <v>0</v>
       </c>
-      <c r="D855">
-        <v>0</v>
-      </c>
+      <c r="D855"/>
       <c r="E855"/>
       <c r="F855"/>
       <c r="G855"/>
@@ -57263,9 +57047,7 @@
       <c r="C857">
         <v>0</v>
       </c>
-      <c r="D857">
-        <v>0</v>
-      </c>
+      <c r="D857"/>
       <c r="E857"/>
       <c r="F857"/>
       <c r="G857"/>
@@ -57539,9 +57321,7 @@
       <c r="C861">
         <v>0</v>
       </c>
-      <c r="D861">
-        <v>0</v>
-      </c>
+      <c r="D861"/>
       <c r="E861"/>
       <c r="F861"/>
       <c r="G861"/>
@@ -57669,9 +57449,7 @@
       <c r="C863">
         <v>0</v>
       </c>
-      <c r="D863">
-        <v>0</v>
-      </c>
+      <c r="D863"/>
       <c r="E863"/>
       <c r="F863"/>
       <c r="G863"/>
@@ -57872,9 +57650,7 @@
       <c r="C866">
         <v>0</v>
       </c>
-      <c r="D866">
-        <v>0</v>
-      </c>
+      <c r="D866"/>
       <c r="E866"/>
       <c r="F866"/>
       <c r="G866"/>
@@ -58075,9 +57851,7 @@
       <c r="C869">
         <v>0</v>
       </c>
-      <c r="D869">
-        <v>0</v>
-      </c>
+      <c r="D869"/>
       <c r="E869"/>
       <c r="F869"/>
       <c r="G869"/>
@@ -58349,9 +58123,7 @@
       <c r="C873">
         <v>0</v>
       </c>
-      <c r="D873">
-        <v>0</v>
-      </c>
+      <c r="D873"/>
       <c r="E873"/>
       <c r="F873"/>
       <c r="G873"/>
@@ -58475,9 +58247,7 @@
       <c r="C875">
         <v>0</v>
       </c>
-      <c r="D875">
-        <v>0</v>
-      </c>
+      <c r="D875"/>
       <c r="E875"/>
       <c r="F875"/>
       <c r="G875"/>
@@ -58733,9 +58503,7 @@
       </c>
       <c r="B879"/>
       <c r="C879"/>
-      <c r="D879">
-        <v>0</v>
-      </c>
+      <c r="D879"/>
       <c r="E879"/>
       <c r="F879"/>
       <c r="G879"/>
@@ -58849,9 +58617,7 @@
       </c>
       <c r="B881"/>
       <c r="C881"/>
-      <c r="D881">
-        <v>0</v>
-      </c>
+      <c r="D881"/>
       <c r="E881"/>
       <c r="F881"/>
       <c r="G881"/>
@@ -59063,9 +58829,7 @@
       </c>
       <c r="B885"/>
       <c r="C885"/>
-      <c r="D885">
-        <v>0</v>
-      </c>
+      <c r="D885"/>
       <c r="E885"/>
       <c r="F885"/>
       <c r="G885"/>
@@ -59163,9 +58927,7 @@
       </c>
       <c r="B887"/>
       <c r="C887"/>
-      <c r="D887">
-        <v>0</v>
-      </c>
+      <c r="D887"/>
       <c r="E887"/>
       <c r="F887"/>
       <c r="G887"/>
@@ -59331,9 +59093,7 @@
       </c>
       <c r="B891"/>
       <c r="C891"/>
-      <c r="D891">
-        <v>0</v>
-      </c>
+      <c r="D891"/>
       <c r="E891"/>
       <c r="F891"/>
       <c r="G891"/>
@@ -59413,9 +59173,7 @@
       </c>
       <c r="B893"/>
       <c r="C893"/>
-      <c r="D893">
-        <v>0</v>
-      </c>
+      <c r="D893"/>
       <c r="E893"/>
       <c r="F893"/>
       <c r="G893"/>

--- a/harmonized_instruments.xlsx
+++ b/harmonized_instruments.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j1jza01\Fed Reserve KC Dropbox\Jonathan Adams\Florida research\How Ricardian Are We\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8041F69E-FC52-468A-B0D2-56E8C0C1A940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89831CC2-F1B0-492C-80A2-6C7376C8EAC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120"/>
+    <workbookView xWindow="45285" yWindow="3675" windowWidth="28800" windowHeight="15345"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="337" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="288" uniqueCount="222">
   <si>
     <t>money_aruobadrechsel</t>
   </si>
@@ -685,9 +685,6 @@
     <t>Swanson (2024)</t>
   </si>
   <si>
-    <t>v03.42</t>
-  </si>
-  <si>
     <t>other_pifferpodstawski18</t>
   </si>
   <si>
@@ -701,6 +698,9 @@
   </si>
   <si>
     <t>money_boehmkroner</t>
+  </si>
+  <si>
+    <t>v03.43</t>
   </si>
 </sst>
 </file>
@@ -1125,8 +1125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDA916B0-B64D-4F44-8F43-1AD77BC9AD6F}">
   <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView tabSelected="true" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="true" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1165,7 +1165,7 @@
         <v>149</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="5" x14ac:dyDescent="0.25">
@@ -1173,7 +1173,7 @@
         <v>150</v>
       </c>
       <c r="B5" s="7">
-        <v>45824</v>
+        <v>45916</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="7" x14ac:dyDescent="0.25">
@@ -1590,16 +1590,16 @@
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="41" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>217</v>
+      </c>
+      <c r="B41" t="s">
         <v>218</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
+        <v>216</v>
+      </c>
+      <c r="D41" t="s">
         <v>219</v>
-      </c>
-      <c r="C41" t="s">
-        <v>217</v>
-      </c>
-      <c r="D41" t="s">
-        <v>220</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="43" x14ac:dyDescent="0.25">
@@ -1860,7 +1860,7 @@
         <v>101</v>
       </c>
       <c r="D1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E1" t="s">
         <v>196</v>
@@ -1935,7 +1935,7 @@
         <v>116</v>
       </c>
       <c r="AC1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AD1" t="s">
         <v>198</v>
@@ -59330,7 +59330,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:Q356"/>
+  <dimension ref="A1:Q361"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -60593,7 +60593,7 @@
       <c r="N51"/>
       <c r="O51"/>
       <c r="P51">
-        <v>-1.3073060633863032</v>
+        <v>-1.2957989800634473</v>
       </c>
       <c r="Q51"/>
     </row>
@@ -60630,7 +60630,7 @@
       <c r="N52"/>
       <c r="O52"/>
       <c r="P52">
-        <v>1.5594435693634523</v>
+        <v>1.5988870544323066</v>
       </c>
       <c r="Q52"/>
     </row>
@@ -60667,7 +60667,7 @@
       <c r="N53"/>
       <c r="O53"/>
       <c r="P53">
-        <v>-1.78706882129207</v>
+        <v>-1.7676713901225525</v>
       </c>
       <c r="Q53"/>
     </row>
@@ -60706,7 +60706,7 @@
       <c r="N54"/>
       <c r="O54"/>
       <c r="P54">
-        <v>12.125257522333316</v>
+        <v>12.127036898240114</v>
       </c>
       <c r="Q54"/>
     </row>
@@ -60745,7 +60745,7 @@
       <c r="N55"/>
       <c r="O55"/>
       <c r="P55">
-        <v>8.6218420811609651</v>
+        <v>8.6362550515735954</v>
       </c>
       <c r="Q55"/>
     </row>
@@ -60784,7 +60784,7 @@
       <c r="N56"/>
       <c r="O56"/>
       <c r="P56">
-        <v>1.3508522191100822</v>
+        <v>1.3716332977129349</v>
       </c>
       <c r="Q56"/>
     </row>
@@ -60823,7 +60823,7 @@
       <c r="N57"/>
       <c r="O57"/>
       <c r="P57">
-        <v>2.8895491634273851</v>
+        <v>2.9046211038845531</v>
       </c>
       <c r="Q57"/>
     </row>
@@ -60862,7 +60862,7 @@
       <c r="N58"/>
       <c r="O58"/>
       <c r="P58">
-        <v>-1.8403120485759343</v>
+        <v>-1.854436848200697</v>
       </c>
       <c r="Q58"/>
     </row>
@@ -60901,7 +60901,7 @@
       <c r="N59"/>
       <c r="O59"/>
       <c r="P59">
-        <v>6.1964107737715821</v>
+        <v>6.203863506278017</v>
       </c>
       <c r="Q59"/>
     </row>
@@ -60940,7 +60940,7 @@
       <c r="N60"/>
       <c r="O60"/>
       <c r="P60">
-        <v>3.5964845883014842</v>
+        <v>3.6371626146250642</v>
       </c>
       <c r="Q60"/>
     </row>
@@ -60979,7 +60979,7 @@
       <c r="N61"/>
       <c r="O61"/>
       <c r="P61">
-        <v>0.1515797345991774</v>
+        <v>0.12688920108480639</v>
       </c>
       <c r="Q61"/>
     </row>
@@ -61018,7 +61018,7 @@
       <c r="N62"/>
       <c r="O62"/>
       <c r="P62">
-        <v>8.2079996414710212</v>
+        <v>8.246773161546157</v>
       </c>
       <c r="Q62"/>
     </row>
@@ -61057,7 +61057,7 @@
       <c r="N63"/>
       <c r="O63"/>
       <c r="P63">
-        <v>-0.49873795308592506</v>
+        <v>-0.48496655900962793</v>
       </c>
       <c r="Q63"/>
     </row>
@@ -61096,7 +61096,7 @@
       <c r="N64"/>
       <c r="O64"/>
       <c r="P64">
-        <v>0.0086888302941510176</v>
+        <v>-0.015015399935659701</v>
       </c>
       <c r="Q64"/>
     </row>
@@ -61135,7 +61135,7 @@
       <c r="N65"/>
       <c r="O65"/>
       <c r="P65">
-        <v>0.76712083161999489</v>
+        <v>0.73901256988793573</v>
       </c>
       <c r="Q65"/>
     </row>
@@ -61174,7 +61174,7 @@
       <c r="N66"/>
       <c r="O66"/>
       <c r="P66">
-        <v>-2.9356115227541513</v>
+        <v>-2.9208213390659177</v>
       </c>
       <c r="Q66"/>
     </row>
@@ -61213,7 +61213,7 @@
       <c r="N67"/>
       <c r="O67"/>
       <c r="P67">
-        <v>-1.9042309342239527</v>
+        <v>-1.9045798846266984</v>
       </c>
       <c r="Q67"/>
     </row>
@@ -61252,7 +61252,7 @@
       <c r="N68"/>
       <c r="O68"/>
       <c r="P68">
-        <v>11.09368641937062</v>
+        <v>11.088710680067491</v>
       </c>
       <c r="Q68"/>
     </row>
@@ -61293,7 +61293,7 @@
       <c r="N69"/>
       <c r="O69"/>
       <c r="P69">
-        <v>-1.0504153083785448</v>
+        <v>-1.0355705183439472</v>
       </c>
       <c r="Q69"/>
     </row>
@@ -61340,7 +61340,7 @@
         <v>-0.32831939299549501</v>
       </c>
       <c r="P70">
-        <v>-4.9763151108411705</v>
+        <v>-4.9946565190860186</v>
       </c>
       <c r="Q70"/>
     </row>
@@ -61387,7 +61387,7 @@
         <v>-1.05304825365263</v>
       </c>
       <c r="P71">
-        <v>7.7288343262580588</v>
+        <v>7.729347222027382</v>
       </c>
       <c r="Q71"/>
     </row>
@@ -61434,7 +61434,7 @@
         <v>-1.8709135518196101</v>
       </c>
       <c r="P72">
-        <v>-3.2022770952619988</v>
+        <v>-3.2290542066806602</v>
       </c>
       <c r="Q72"/>
     </row>
@@ -61481,7 +61481,7 @@
         <v>0.74263517532150103</v>
       </c>
       <c r="P73">
-        <v>0.16678970069990751</v>
+        <v>0.20473100600222338</v>
       </c>
       <c r="Q73"/>
     </row>
@@ -61528,7 +61528,7 @@
         <v>1.71843799083368</v>
       </c>
       <c r="P74">
-        <v>9.0967774145553602</v>
+        <v>9.1006535452266508</v>
       </c>
       <c r="Q74"/>
     </row>
@@ -61575,7 +61575,7 @@
         <v>1.8562707000051</v>
       </c>
       <c r="P75">
-        <v>4.5130114170886309</v>
+        <v>4.4959997714686457</v>
       </c>
       <c r="Q75"/>
     </row>
@@ -61622,7 +61622,7 @@
         <v>1.4736038334869499</v>
       </c>
       <c r="P76">
-        <v>5.2264892522309463</v>
+        <v>5.2511693758912532</v>
       </c>
       <c r="Q76"/>
     </row>
@@ -61669,7 +61669,7 @@
         <v>0.396791006911347</v>
       </c>
       <c r="P77">
-        <v>2.1649814927013971</v>
+        <v>2.1526432391927743</v>
       </c>
       <c r="Q77"/>
     </row>
@@ -61718,7 +61718,7 @@
         <v>-0.18168996525686701</v>
       </c>
       <c r="P78">
-        <v>5.3218966998476818</v>
+        <v>5.3281699066662798</v>
       </c>
       <c r="Q78"/>
     </row>
@@ -61767,7 +61767,7 @@
         <v>0.218775696550602</v>
       </c>
       <c r="P79">
-        <v>3.1282975718131927</v>
+        <v>3.1364114005725474</v>
       </c>
       <c r="Q79"/>
     </row>
@@ -61816,7 +61816,7 @@
         <v>0.17755402933856701</v>
       </c>
       <c r="P80">
-        <v>3.8200257213064965</v>
+        <v>3.8184660003387951</v>
       </c>
       <c r="Q80"/>
     </row>
@@ -61865,7 +61865,7 @@
         <v>-0.47207619497390702</v>
       </c>
       <c r="P81">
-        <v>1.9157766918599091</v>
+        <v>1.9330727741832625</v>
       </c>
       <c r="Q81"/>
     </row>
@@ -61914,7 +61914,7 @@
         <v>0.61861474763996105</v>
       </c>
       <c r="P82">
-        <v>-1.5806584083415656</v>
+        <v>-1.566327290201591</v>
       </c>
       <c r="Q82"/>
     </row>
@@ -61963,7 +61963,7 @@
         <v>0.297194961335292</v>
       </c>
       <c r="P83">
-        <v>1.3025446522027493</v>
+        <v>1.2816749300438581</v>
       </c>
       <c r="Q83"/>
     </row>
@@ -62012,7 +62012,7 @@
         <v>-0.36338596719938099</v>
       </c>
       <c r="P84">
-        <v>1.5802145314604896</v>
+        <v>1.5748619834754072</v>
       </c>
       <c r="Q84"/>
     </row>
@@ -62061,7 +62061,7 @@
         <v>-1.17194687012503</v>
       </c>
       <c r="P85">
-        <v>-5.6695311644069353</v>
+        <v>-5.6872240717520555</v>
       </c>
       <c r="Q85"/>
     </row>
@@ -62110,7 +62110,7 @@
         <v>-1.5605406603693599</v>
       </c>
       <c r="P86">
-        <v>2.0715279386912009</v>
+        <v>2.0450222518009475</v>
       </c>
       <c r="Q86"/>
     </row>
@@ -62159,7 +62159,7 @@
         <v>-0.950575055947947</v>
       </c>
       <c r="P87">
-        <v>6.5214309414254661</v>
+        <v>6.5222312042630533</v>
       </c>
       <c r="Q87"/>
     </row>
@@ -62208,7 +62208,7 @@
         <v>-1.4527841003747799</v>
       </c>
       <c r="P88">
-        <v>-2.142161879776681</v>
+        <v>-2.1186762892562667</v>
       </c>
       <c r="Q88"/>
     </row>
@@ -62257,7 +62257,7 @@
         <v>1.25798521666572</v>
       </c>
       <c r="P89">
-        <v>2.8286394400459347</v>
+        <v>2.8518663723322217</v>
       </c>
       <c r="Q89"/>
     </row>
@@ -62306,7 +62306,7 @@
         <v>0.40560578973502798</v>
       </c>
       <c r="P90">
-        <v>3.8406555812544609</v>
+        <v>3.8334116435733447</v>
       </c>
       <c r="Q90"/>
     </row>
@@ -62355,7 +62355,7 @@
         <v>-0.32919837415091102</v>
       </c>
       <c r="P91">
-        <v>5.9027476134740882</v>
+        <v>5.8718971181372748</v>
       </c>
       <c r="Q91"/>
     </row>
@@ -62404,7 +62404,7 @@
         <v>1.5615549467866501</v>
       </c>
       <c r="P92">
-        <v>4.391927582928167</v>
+        <v>4.3961765159194908</v>
       </c>
       <c r="Q92"/>
     </row>
@@ -62453,7 +62453,7 @@
         <v>0.66133182606664198</v>
       </c>
       <c r="P93">
-        <v>8.8166199508413499</v>
+        <v>8.8384296498853612</v>
       </c>
       <c r="Q93"/>
     </row>
@@ -62502,7 +62502,7 @@
         <v>-2.4538241010505701</v>
       </c>
       <c r="P94">
-        <v>1.3325329076366703</v>
+        <v>1.3357564962006201</v>
       </c>
       <c r="Q94"/>
     </row>
@@ -62551,7 +62551,7 @@
         <v>-0.838371083582658</v>
       </c>
       <c r="P95">
-        <v>0.89894053517187777</v>
+        <v>0.90950684265764203</v>
       </c>
       <c r="Q95"/>
     </row>
@@ -62600,7 +62600,7 @@
         <v>-0.23240961360772799</v>
       </c>
       <c r="P96">
-        <v>-0.080127595586166223</v>
+        <v>-0.10201804372778422</v>
       </c>
       <c r="Q96"/>
     </row>
@@ -62649,7 +62649,7 @@
         <v>-0.95094782564185998</v>
       </c>
       <c r="P97">
-        <v>0.9577353198838372</v>
+        <v>0.95152966441585285</v>
       </c>
       <c r="Q97"/>
     </row>
@@ -62698,7 +62698,7 @@
         <v>-0.56956172431249097</v>
       </c>
       <c r="P98">
-        <v>-4.0598324945498128</v>
+        <v>-4.0497390985628581</v>
       </c>
       <c r="Q98"/>
     </row>
@@ -62747,7 +62747,7 @@
         <v>-0.202412779355754</v>
       </c>
       <c r="P99">
-        <v>0.080292419924974823</v>
+        <v>0.055393491333419753</v>
       </c>
       <c r="Q99"/>
     </row>
@@ -62796,7 +62796,7 @@
         <v>-0.86261716985640502</v>
       </c>
       <c r="P100">
-        <v>3.6392364128442161</v>
+        <v>3.6663752440663942</v>
       </c>
       <c r="Q100"/>
     </row>
@@ -62845,7 +62845,7 @@
         <v>-0.172905171374514</v>
       </c>
       <c r="P101">
-        <v>3.5949591229840312</v>
+        <v>3.573342450245284</v>
       </c>
       <c r="Q101"/>
     </row>
@@ -62894,7 +62894,7 @@
         <v>2.80772964316568</v>
       </c>
       <c r="P102">
-        <v>6.262394593823041</v>
+        <v>6.3095276004033156</v>
       </c>
       <c r="Q102"/>
     </row>
@@ -62943,7 +62943,7 @@
         <v>-1.6341483042198399</v>
       </c>
       <c r="P103">
-        <v>-0.63015469945955793</v>
+        <v>-0.66939981530730996</v>
       </c>
       <c r="Q103"/>
     </row>
@@ -62992,7 +62992,7 @@
         <v>-0.65013424756761695</v>
       </c>
       <c r="P104">
-        <v>2.1677596279782332</v>
+        <v>2.165023350761476</v>
       </c>
       <c r="Q104"/>
     </row>
@@ -63041,7 +63041,7 @@
         <v>-1.6115133525913601</v>
       </c>
       <c r="P105">
-        <v>3.1973915683937086</v>
+        <v>3.2214647436128363</v>
       </c>
       <c r="Q105"/>
     </row>
@@ -63092,7 +63092,7 @@
         <v>-1.1063307405346801</v>
       </c>
       <c r="P106">
-        <v>-0.55463830020281479</v>
+        <v>-0.5987459697071853</v>
       </c>
       <c r="Q106"/>
     </row>
@@ -63143,7 +63143,7 @@
         <v>1.5243084450678</v>
       </c>
       <c r="P107">
-        <v>2.4446338878648559</v>
+        <v>2.4652603649725844</v>
       </c>
       <c r="Q107"/>
     </row>
@@ -63194,7 +63194,7 @@
         <v>-0.57303749601201604</v>
       </c>
       <c r="P108">
-        <v>2.5319494628141563</v>
+        <v>2.5093282578691563</v>
       </c>
       <c r="Q108"/>
     </row>
@@ -63245,7 +63245,7 @@
         <v>0.152385888369719</v>
       </c>
       <c r="P109">
-        <v>-3.2584377664857218</v>
+        <v>-3.2156079965073996</v>
       </c>
       <c r="Q109"/>
     </row>
@@ -63296,7 +63296,7 @@
         <v>1.1976828477722199</v>
       </c>
       <c r="P110">
-        <v>3.7940110378848675</v>
+        <v>3.7961812765883689</v>
       </c>
       <c r="Q110"/>
     </row>
@@ -63347,7 +63347,7 @@
         <v>0.52190100465494904</v>
       </c>
       <c r="P111">
-        <v>-1.598939331040873</v>
+        <v>-1.6075363021023925</v>
       </c>
       <c r="Q111"/>
     </row>
@@ -63398,7 +63398,7 @@
         <v>1.3440163878418501</v>
       </c>
       <c r="P112">
-        <v>4.8671567151799175</v>
+        <v>4.8637926889129082</v>
       </c>
       <c r="Q112"/>
     </row>
@@ -63449,7 +63449,7 @@
         <v>-0.13494135284338199</v>
       </c>
       <c r="P113">
-        <v>4.6346480183515801</v>
+        <v>4.6667123940791662</v>
       </c>
       <c r="Q113"/>
     </row>
@@ -63500,7 +63500,7 @@
         <v>0.0960635218140235</v>
       </c>
       <c r="P114">
-        <v>-0.60443103547594568</v>
+        <v>-0.60104793173513227</v>
       </c>
       <c r="Q114"/>
     </row>
@@ -63551,7 +63551,7 @@
         <v>-0.113516360120854</v>
       </c>
       <c r="P115">
-        <v>0.28838269747255207</v>
+        <v>0.25429592449658367</v>
       </c>
       <c r="Q115"/>
     </row>
@@ -63602,7 +63602,7 @@
         <v>1.45192989698069</v>
       </c>
       <c r="P116">
-        <v>5.6654999602828457</v>
+        <v>5.6656064261352555</v>
       </c>
       <c r="Q116"/>
     </row>
@@ -63653,7 +63653,7 @@
         <v>-0.51418490153892504</v>
       </c>
       <c r="P117">
-        <v>-0.28833184783938071</v>
+        <v>-0.27837420527456747</v>
       </c>
       <c r="Q117"/>
     </row>
@@ -63704,7 +63704,7 @@
         <v>1.0059458353250299</v>
       </c>
       <c r="P118">
-        <v>5.6637241596070069</v>
+        <v>5.6586746657374008</v>
       </c>
       <c r="Q118"/>
     </row>
@@ -63755,7 +63755,7 @@
         <v>-0.016894396018163799</v>
       </c>
       <c r="P119">
-        <v>-2.9391049862723877</v>
+        <v>-2.9292795820010227</v>
       </c>
       <c r="Q119"/>
     </row>
@@ -63806,7 +63806,7 @@
         <v>0.217352050702943</v>
       </c>
       <c r="P120">
-        <v>3.6031237542896433</v>
+        <v>3.5991206641313731</v>
       </c>
       <c r="Q120"/>
     </row>
@@ -63857,7 +63857,7 @@
         <v>-1.2415814472711999</v>
       </c>
       <c r="P121">
-        <v>-0.85710225607287383</v>
+        <v>-0.88361241617261155</v>
       </c>
       <c r="Q121"/>
     </row>
@@ -63908,7 +63908,7 @@
         <v>0.61649032645597401</v>
       </c>
       <c r="P122">
-        <v>-0.49671004889505621</v>
+        <v>-0.45076205992379315</v>
       </c>
       <c r="Q122"/>
     </row>
@@ -63959,7 +63959,7 @@
         <v>-0.73906657172895596</v>
       </c>
       <c r="P123">
-        <v>1.2100474823349208</v>
+        <v>1.1746983110396767</v>
       </c>
       <c r="Q123"/>
     </row>
@@ -64010,7 +64010,7 @@
         <v>1.1643665938929499</v>
       </c>
       <c r="P124">
-        <v>8.3459076523734801</v>
+        <v>8.3391433501822316</v>
       </c>
       <c r="Q124"/>
     </row>
@@ -64061,7 +64061,7 @@
         <v>1.5081978166334</v>
       </c>
       <c r="P125">
-        <v>2.6201341745444218</v>
+        <v>2.6332683800656547</v>
       </c>
       <c r="Q125"/>
     </row>
@@ -64112,7 +64112,7 @@
         <v>1.3071716125266499</v>
       </c>
       <c r="P126">
-        <v>3.2815887322139608</v>
+        <v>3.2824996447714021</v>
       </c>
       <c r="Q126"/>
     </row>
@@ -64163,7 +64163,7 @@
         <v>-0.78122270754204304</v>
       </c>
       <c r="P127">
-        <v>-2.0302919662750094</v>
+        <v>-2.0525760702458036</v>
       </c>
       <c r="Q127"/>
     </row>
@@ -64214,7 +64214,7 @@
         <v>-0.42356994485117</v>
       </c>
       <c r="P128">
-        <v>0.96703106847289422</v>
+        <v>0.96174712123309236</v>
       </c>
       <c r="Q128"/>
     </row>
@@ -64265,7 +64265,7 @@
         <v>0.63170453311334895</v>
       </c>
       <c r="P129">
-        <v>3.7560900032473166</v>
+        <v>3.7519469292923544</v>
       </c>
       <c r="Q129"/>
     </row>
@@ -64316,7 +64316,7 @@
         <v>0.78643026476398104</v>
       </c>
       <c r="P130">
-        <v>7.8129112000457637</v>
+        <v>7.8021051068957101</v>
       </c>
       <c r="Q130"/>
     </row>
@@ -64367,7 +64367,7 @@
         <v>0.18361025222625599</v>
       </c>
       <c r="P131">
-        <v>4.4619819799322222</v>
+        <v>4.4772831454926925</v>
       </c>
       <c r="Q131"/>
     </row>
@@ -64418,7 +64418,7 @@
         <v>-0.596874416630784</v>
       </c>
       <c r="P132">
-        <v>-1.6070489786796352</v>
+        <v>-1.6142052969227039</v>
       </c>
       <c r="Q132"/>
     </row>
@@ -64469,7 +64469,7 @@
         <v>-0.64283794882676104</v>
       </c>
       <c r="P133">
-        <v>3.6102060430518996</v>
+        <v>3.5820493598255401</v>
       </c>
       <c r="Q133"/>
     </row>
@@ -64520,7 +64520,7 @@
         <v>1.8672526697732801</v>
       </c>
       <c r="P134">
-        <v>5.8465151317190127</v>
+        <v>5.8979492178237649</v>
       </c>
       <c r="Q134"/>
     </row>
@@ -64571,7 +64571,7 @@
         <v>0.73180132818286203</v>
       </c>
       <c r="P135">
-        <v>2.5012458461683114</v>
+        <v>2.4884768169325429</v>
       </c>
       <c r="Q135"/>
     </row>
@@ -64622,7 +64622,7 @@
         <v>-0.91276930310876003</v>
       </c>
       <c r="P136">
-        <v>-0.58954361323568905</v>
+        <v>-0.57491432237257323</v>
       </c>
       <c r="Q136"/>
     </row>
@@ -64673,7 +64673,7 @@
         <v>-1.07570516990224</v>
       </c>
       <c r="P137">
-        <v>-1.9958946119644259</v>
+        <v>-1.9923848843406557</v>
       </c>
       <c r="Q137"/>
     </row>
@@ -64724,7 +64724,7 @@
         <v>-0.407886696896263</v>
       </c>
       <c r="P138">
-        <v>-0.62145455132916594</v>
+        <v>-0.63194359169680014</v>
       </c>
       <c r="Q138"/>
     </row>
@@ -64775,7 +64775,7 @@
         <v>-0.85553824259653399</v>
       </c>
       <c r="P139">
-        <v>-3.0190024063230196</v>
+        <v>-3.028488381406802</v>
       </c>
       <c r="Q139"/>
     </row>
@@ -64826,7 +64826,7 @@
         <v>-0.197295285974289</v>
       </c>
       <c r="P140">
-        <v>-0.7880655262335039</v>
+        <v>-0.78380448638895328</v>
       </c>
       <c r="Q140"/>
     </row>
@@ -64877,7 +64877,7 @@
         <v>-1.0244064104756301</v>
       </c>
       <c r="P141">
-        <v>-0.79686900740596034</v>
+        <v>-0.80925798941776561</v>
       </c>
       <c r="Q141"/>
     </row>
@@ -64928,7 +64928,7 @@
         <v>-0.24141338563418399</v>
       </c>
       <c r="P142">
-        <v>4.5164491215076872</v>
+        <v>4.5054338268945706</v>
       </c>
       <c r="Q142"/>
     </row>
@@ -64979,7 +64979,7 @@
         <v>0.53180489812665999</v>
       </c>
       <c r="P143">
-        <v>7.1240117304366954</v>
+        <v>7.1305427428453054</v>
       </c>
       <c r="Q143"/>
     </row>
@@ -65030,7 +65030,7 @@
         <v>1.1606692053665899</v>
       </c>
       <c r="P144">
-        <v>5.6070727618758802</v>
+        <v>5.6314154647857855</v>
       </c>
       <c r="Q144"/>
     </row>
@@ -65081,7 +65081,7 @@
         <v>-1.5665967571452699</v>
       </c>
       <c r="P145">
-        <v>-0.48758056269096794</v>
+        <v>-0.50183086305562341</v>
       </c>
       <c r="Q145"/>
     </row>
@@ -65132,7 +65132,7 @@
         <v>2.0219955062214301</v>
       </c>
       <c r="P146">
-        <v>4.9807733025123104</v>
+        <v>5.0209540797977619</v>
       </c>
       <c r="Q146">
         <v>0</v>
@@ -65185,7 +65185,7 @@
         <v>-0.73846407223453903</v>
       </c>
       <c r="P147">
-        <v>0.16382692114427538</v>
+        <v>0.12428103791109438</v>
       </c>
       <c r="Q147">
         <v>0</v>
@@ -65238,7 +65238,7 @@
         <v>-0.473991360428204</v>
       </c>
       <c r="P148">
-        <v>8.7590908995933532</v>
+        <v>8.7541017661063272</v>
       </c>
       <c r="Q148">
         <v>0</v>
@@ -65291,7 +65291,7 @@
         <v>-1.5196991433570199</v>
       </c>
       <c r="P149">
-        <v>-5.7658268524204601</v>
+        <v>-5.7641546883249557</v>
       </c>
       <c r="Q149">
         <v>0</v>
@@ -65344,7 +65344,7 @@
         <v>-0.54861667685169901</v>
       </c>
       <c r="P150">
-        <v>1.5499624640453833</v>
+        <v>1.5597696935525613</v>
       </c>
       <c r="Q150">
         <v>0</v>
@@ -65397,7 +65397,7 @@
         <v>1.5704238504435999</v>
       </c>
       <c r="P151">
-        <v>2.789317769091666</v>
+        <v>2.7924273807751918</v>
       </c>
       <c r="Q151">
         <v>0</v>
@@ -65450,7 +65450,7 @@
         <v>-0.97976172667797801</v>
       </c>
       <c r="P152">
-        <v>2.4174199394468912</v>
+        <v>2.4107372149980892</v>
       </c>
       <c r="Q152">
         <v>0</v>
@@ -65503,7 +65503,7 @@
         <v>-0.26459162190199398</v>
       </c>
       <c r="P153">
-        <v>3.5804660831766753</v>
+        <v>3.5834299889392658</v>
       </c>
       <c r="Q153">
         <v>0</v>
@@ -65556,7 +65556,7 @@
         <v>1.38825253261606</v>
       </c>
       <c r="P154">
-        <v>4.2758736662418135</v>
+        <v>4.2736533241770491</v>
       </c>
       <c r="Q154">
         <v>0</v>
@@ -65609,7 +65609,7 @@
         <v>-0.73229514998362</v>
       </c>
       <c r="P155">
-        <v>-2.3674410349881079</v>
+        <v>-2.3661985779277233</v>
       </c>
       <c r="Q155">
         <v>0</v>
@@ -65662,7 +65662,7 @@
         <v>-2.3786031409628898</v>
       </c>
       <c r="P156">
-        <v>-3.9791946897970409</v>
+        <v>-3.9732328416285561</v>
       </c>
       <c r="Q156">
         <v>0</v>
@@ -65715,7 +65715,7 @@
         <v>0.210622339946999</v>
       </c>
       <c r="P157">
-        <v>1.1252913739686696</v>
+        <v>1.1239268200075545</v>
       </c>
       <c r="Q157">
         <v>-3.2901999950408936</v>
@@ -65768,7 +65768,7 @@
         <v>-1.5872873477101299</v>
       </c>
       <c r="P158">
-        <v>-3.1584397077690412</v>
+        <v>-3.1556790716547827</v>
       </c>
       <c r="Q158">
         <v>2.4714999198913574</v>
@@ -65821,7 +65821,7 @@
         <v>0.68347519925892197</v>
       </c>
       <c r="P159">
-        <v>3.1202610553736596</v>
+        <v>3.1282257834223408</v>
       </c>
       <c r="Q159">
         <v>0.81870001554489136</v>
@@ -65874,7 +65874,7 @@
         <v>-0.047680364085604603</v>
       </c>
       <c r="P160">
-        <v>-6.4738973234086234</v>
+        <v>-6.4731631234718101</v>
       </c>
       <c r="Q160">
         <v>0</v>
@@ -65927,7 +65927,7 @@
         <v>0.48084459187435002</v>
       </c>
       <c r="P161">
-        <v>5.5996258657577833</v>
+        <v>5.6052455783077306</v>
       </c>
       <c r="Q161">
         <v>0</v>
@@ -65980,7 +65980,7 @@
         <v>1.22065459994418</v>
       </c>
       <c r="P162">
-        <v>9.8041875702712566</v>
+        <v>9.8045739404501511</v>
       </c>
       <c r="Q162">
         <v>0</v>
@@ -66033,7 +66033,7 @@
         <v>1.0779808480762501</v>
       </c>
       <c r="P163">
-        <v>4.2243201734312459</v>
+        <v>4.2186062588360462</v>
       </c>
       <c r="Q163">
         <v>0</v>
@@ -66086,7 +66086,7 @@
         <v>0.28261846255265499</v>
       </c>
       <c r="P164">
-        <v>-1.6083582769422193</v>
+        <v>-1.6080340254767362</v>
       </c>
       <c r="Q164">
         <v>0</v>
@@ -66139,7 +66139,7 @@
         <v>-0.314509853232257</v>
       </c>
       <c r="P165">
-        <v>-4.351541067666135</v>
+        <v>-4.3557893970547781</v>
       </c>
       <c r="Q165">
         <v>0</v>
@@ -66192,7 +66192,7 @@
         <v>1.77770163427287</v>
       </c>
       <c r="P166">
-        <v>0.41549480478182499</v>
+        <v>0.42020429470583309</v>
       </c>
       <c r="Q166">
         <v>0</v>
@@ -66245,7 +66245,7 @@
         <v>0.625953088151045</v>
       </c>
       <c r="P167">
-        <v>3.3283575410115751</v>
+        <v>3.3233982952129209</v>
       </c>
       <c r="Q167">
         <v>0</v>
@@ -66298,7 +66298,7 @@
         <v>-0.116671327041817</v>
       </c>
       <c r="P168">
-        <v>-0.30891712373310487</v>
+        <v>-0.31085367685027721</v>
       </c>
       <c r="Q168">
         <v>0</v>
@@ -66351,7 +66351,7 @@
         <v>0.79242172844829795</v>
       </c>
       <c r="P169">
-        <v>3.9527048066154715</v>
+        <v>3.9582673297939182</v>
       </c>
       <c r="Q169">
         <v>0</v>
@@ -66404,7 +66404,7 @@
         <v>0.25323803120742899</v>
       </c>
       <c r="P170">
-        <v>2.7017811320899758</v>
+        <v>2.7035958587098583</v>
       </c>
       <c r="Q170">
         <v>0</v>
@@ -66457,7 +66457,7 @@
         <v>0.112587301041459</v>
       </c>
       <c r="P171">
-        <v>-2.6180334510229235</v>
+        <v>-2.6296639106146169</v>
       </c>
       <c r="Q171">
         <v>0</v>
@@ -66510,7 +66510,7 @@
         <v>1.13186914290398</v>
       </c>
       <c r="P172">
-        <v>7.0828562091985266</v>
+        <v>7.0887459772828123</v>
       </c>
       <c r="Q172">
         <v>0</v>
@@ -66563,7 +66563,7 @@
         <v>-1.7287706047045299</v>
       </c>
       <c r="P173">
-        <v>-5.0804371763071297</v>
+        <v>-5.0845790275963463</v>
       </c>
       <c r="Q173">
         <v>0</v>
@@ -66616,7 +66616,7 @@
         <v>-1.7816682777687201</v>
       </c>
       <c r="P174">
-        <v>3.6473452376352045</v>
+        <v>3.6477250733831301</v>
       </c>
       <c r="Q174">
         <v>0</v>
@@ -66669,7 +66669,7 @@
         <v>2.2433886148134898</v>
       </c>
       <c r="P175">
-        <v>-0.20646360728759383</v>
+        <v>-0.20702519762923721</v>
       </c>
       <c r="Q175">
         <v>0</v>
@@ -66722,7 +66722,7 @@
         <v>0.15522485735497499</v>
       </c>
       <c r="P176">
-        <v>0.20359325896945507</v>
+        <v>0.20213785051974942</v>
       </c>
       <c r="Q176">
         <v>0</v>
@@ -66775,7 +66775,7 @@
         <v>0.35541835975680802</v>
       </c>
       <c r="P177">
-        <v>-0.78699211799882662</v>
+        <v>-0.78976718327025053</v>
       </c>
       <c r="Q177">
         <v>-0.70550000667572021</v>
@@ -66828,7 +66828,7 @@
         <v>0.17064107769185699</v>
       </c>
       <c r="P178">
-        <v>-1.081988306784663</v>
+        <v>-1.0882014172921002</v>
       </c>
       <c r="Q178">
         <v>-4.7439999580383301</v>
@@ -66881,7 +66881,7 @@
         <v>-0.163461019076237</v>
       </c>
       <c r="P179">
-        <v>5.0920950630076858</v>
+        <v>5.1012050910045232</v>
       </c>
       <c r="Q179">
         <v>2.8842999935150146</v>
@@ -66934,7 +66934,7 @@
         <v>0.80145922934610303</v>
       </c>
       <c r="P180">
-        <v>-5.4557551921877137</v>
+        <v>-5.4521775967428514</v>
       </c>
       <c r="Q180">
         <v>0.06120000034570694</v>
@@ -66987,7 +66987,7 @@
         <v>-0.121770480774398</v>
       </c>
       <c r="P181">
-        <v>-0.65150331671842199</v>
+        <v>-0.65831723384181706</v>
       </c>
       <c r="Q181">
         <v>0.019500000402331352</v>
@@ -67040,7 +67040,7 @@
         <v>0.417402169631303</v>
       </c>
       <c r="P182">
-        <v>8.3663074304402052</v>
+        <v>8.3717084647864795</v>
       </c>
       <c r="Q182">
         <v>-1.7572000026702881</v>
@@ -67093,7 +67093,7 @@
         <v>-2.0865353553084498</v>
       </c>
       <c r="P183">
-        <v>-2.5453615323525147</v>
+        <v>-2.5377413148894359</v>
       </c>
       <c r="Q183">
         <v>-0.10369999706745148</v>
@@ -67146,7 +67146,7 @@
         <v>-0.32552797192432498</v>
       </c>
       <c r="P184">
-        <v>-2.0028964857363309</v>
+        <v>-1.9993305646470707</v>
       </c>
       <c r="Q184">
         <v>-0.39399999380111694</v>
@@ -67199,7 +67199,7 @@
         <v>0.066060078671899503</v>
       </c>
       <c r="P185">
-        <v>-3.8777545195184988</v>
+        <v>-3.881104728085174</v>
       </c>
       <c r="Q185">
         <v>-6.5907998085021973</v>
@@ -67252,7 +67252,7 @@
         <v>1.5447640425120801</v>
       </c>
       <c r="P186">
-        <v>4.7824401557470102</v>
+        <v>4.7815973142582573</v>
       </c>
       <c r="Q186">
         <v>2.1447000503540039</v>
@@ -67305,7 +67305,7 @@
         <v>-0.40506756962495599</v>
       </c>
       <c r="P187">
-        <v>-4.0222611664943404</v>
+        <v>-4.0260239731811103</v>
       </c>
       <c r="Q187">
         <v>2.209399938583374</v>
@@ -67358,7 +67358,7 @@
         <v>1.50896025136647</v>
       </c>
       <c r="P188">
-        <v>8.57665981756411</v>
+        <v>8.5859793268257221</v>
       </c>
       <c r="Q188">
         <v>1.3795000314712525</v>
@@ -67411,7 +67411,7 @@
         <v>-0.81560605027045197</v>
       </c>
       <c r="P189">
-        <v>-1.8428992089991851</v>
+        <v>-1.8423390221611786</v>
       </c>
       <c r="Q189">
         <v>-1.2905000448226929</v>
@@ -67464,7 +67464,7 @@
         <v>-0.89369598503296099</v>
       </c>
       <c r="P190">
-        <v>2.0082610186159764</v>
+        <v>2.0002458815727682</v>
       </c>
       <c r="Q190">
         <v>1.4701999425888062</v>
@@ -67517,7 +67517,7 @@
         <v>-0.076308321841192794</v>
       </c>
       <c r="P191">
-        <v>-2.9262331632905654</v>
+        <v>-2.9144363205758728</v>
       </c>
       <c r="Q191">
         <v>1.3518999814987183</v>
@@ -67570,7 +67570,7 @@
         <v>-1.0675583321409501</v>
       </c>
       <c r="P192">
-        <v>-2.6599694869915655</v>
+        <v>-2.6631684405003449</v>
       </c>
       <c r="Q192">
         <v>-0.21029999852180481</v>
@@ -67623,7 +67623,7 @@
         <v>-0.35481152054700899</v>
       </c>
       <c r="P193">
-        <v>0.77914768402490442</v>
+        <v>0.78052492435664456</v>
       </c>
       <c r="Q193">
         <v>-0.077399998903274536</v>
@@ -67676,7 +67676,7 @@
         <v>-1.76668735982264</v>
       </c>
       <c r="P194">
-        <v>-1.519911725966447</v>
+        <v>-1.5203036275335129</v>
       </c>
       <c r="Q194">
         <v>1.138700008392334</v>
@@ -67729,7 +67729,7 @@
         <v>-0.10584087787544499</v>
       </c>
       <c r="P195">
-        <v>-1.3354085272689389</v>
+        <v>-1.3407974904264925</v>
       </c>
       <c r="Q195">
         <v>-1.2132999897003174</v>
@@ -67782,7 +67782,7 @@
         <v>-0.37069841774366202</v>
       </c>
       <c r="P196">
-        <v>-4.7184066617908078</v>
+        <v>-4.7226716388480021</v>
       </c>
       <c r="Q196">
         <v>0.56150001287460327</v>
@@ -67835,7 +67835,7 @@
         <v>-0.24709606920591701</v>
       </c>
       <c r="P197">
-        <v>0.56806694552317794</v>
+        <v>0.56629981407438112</v>
       </c>
       <c r="Q197">
         <v>-0.63940000534057617</v>
@@ -67888,7 +67888,7 @@
         <v>0.49780824128527101</v>
       </c>
       <c r="P198">
-        <v>3.2610069076627708</v>
+        <v>3.2582997931970379</v>
       </c>
       <c r="Q198">
         <v>-0.25180000066757202</v>
@@ -67941,7 +67941,7 @@
         <v>1.4991226522845</v>
       </c>
       <c r="P199">
-        <v>3.4617151747766695</v>
+        <v>3.4660763236701633</v>
       </c>
       <c r="Q199">
         <v>-0.33100000023841858</v>
@@ -67994,7 +67994,7 @@
         <v>0.33786964794683</v>
       </c>
       <c r="P200">
-        <v>1.6429845115985118</v>
+        <v>1.6394794047125152</v>
       </c>
       <c r="Q200">
         <v>0.65539997816085815</v>
@@ -68047,7 +68047,7 @@
         <v>0.040534403027331502</v>
       </c>
       <c r="P201">
-        <v>1.585118549448322</v>
+        <v>1.5949371628605906</v>
       </c>
       <c r="Q201">
         <v>0.58039999008178711</v>
@@ -68100,7 +68100,7 @@
         <v>1.1227392991985199</v>
       </c>
       <c r="P202">
-        <v>4.6323035332627791</v>
+        <v>4.6359632212745376</v>
       </c>
       <c r="Q202">
         <v>-0.69819998741149902</v>
@@ -68153,7 +68153,7 @@
         <v>-0.45709926682340501</v>
       </c>
       <c r="P203">
-        <v>-1.4841757637617412</v>
+        <v>-1.4883096479756393</v>
       </c>
       <c r="Q203">
         <v>0.95509999990463257</v>
@@ -68206,7 +68206,7 @@
         <v>1.5891001089619801</v>
       </c>
       <c r="P204">
-        <v>2.9345705111697971</v>
+        <v>2.9372666803767906</v>
       </c>
       <c r="Q204">
         <v>0.5439000129699707</v>
@@ -68259,7 +68259,7 @@
         <v>0.42367517284620498</v>
       </c>
       <c r="P205">
-        <v>-1.3625718511725578</v>
+        <v>-1.3622388866251101</v>
       </c>
       <c r="Q205">
         <v>-0.51080000400543213</v>
@@ -68312,7 +68312,7 @@
         <v>0.62771456684062799</v>
       </c>
       <c r="P206">
-        <v>3.7559645399856532</v>
+        <v>3.7557899748144976</v>
       </c>
       <c r="Q206">
         <v>-0.11659999936819077</v>
@@ -68365,7 +68365,7 @@
         <v>0.47094561208911001</v>
       </c>
       <c r="P207">
-        <v>3.4166597575267299</v>
+        <v>3.414455562540855</v>
       </c>
       <c r="Q207">
         <v>-0.48039999604225159</v>
@@ -68418,7 +68418,7 @@
         <v>0.23982754468598599</v>
       </c>
       <c r="P208">
-        <v>0.3721507675714163</v>
+        <v>0.3704045864515495</v>
       </c>
       <c r="Q208">
         <v>-0.44089999794960022</v>
@@ -68471,7 +68471,7 @@
         <v>-0.45720969379682402</v>
       </c>
       <c r="P209">
-        <v>-0.98928019227453823</v>
+        <v>-0.98186636951074957</v>
       </c>
       <c r="Q209">
         <v>0.69529998302459717</v>
@@ -68524,7 +68524,7 @@
         <v>-1.69074086953962</v>
       </c>
       <c r="P210">
-        <v>-4.3294427140368592</v>
+        <v>-4.3278389723610449</v>
       </c>
       <c r="Q210">
         <v>1.0986000299453735</v>
@@ -68577,7 +68577,7 @@
         <v>0.044101515449825698</v>
       </c>
       <c r="P211">
-        <v>4.3218164891388033</v>
+        <v>4.3222141053819065</v>
       </c>
       <c r="Q211">
         <v>0.16689999401569366</v>
@@ -68630,7 +68630,7 @@
         <v>-0.73677918096328099</v>
       </c>
       <c r="P212">
-        <v>1.3087265259209673</v>
+        <v>1.3091060057153621</v>
       </c>
       <c r="Q212">
         <v>-1.4801000356674194</v>
@@ -68683,7 +68683,7 @@
         <v>0.219300984906768</v>
       </c>
       <c r="P213">
-        <v>0.58074082736110055</v>
+        <v>0.58438523324548086</v>
       </c>
       <c r="Q213">
         <v>1.2006000280380249</v>
@@ -68736,7 +68736,7 @@
         <v>0.37252973689135599</v>
       </c>
       <c r="P214">
-        <v>5.7106818331747089</v>
+        <v>5.7098687225309144</v>
       </c>
       <c r="Q214">
         <v>0.78049999475479126</v>
@@ -68789,7 +68789,7 @@
         <v>0.22099085563743801</v>
       </c>
       <c r="P215">
-        <v>1.1498552435788758</v>
+        <v>1.15295303419447</v>
       </c>
       <c r="Q215">
         <v>-0.15209999680519104</v>
@@ -68842,7 +68842,7 @@
         <v>0.023033461707738501</v>
       </c>
       <c r="P216">
-        <v>1.6518180556974789</v>
+        <v>1.6521934718628355</v>
       </c>
       <c r="Q216">
         <v>-0.38350000977516174</v>
@@ -68895,7 +68895,7 @@
         <v>0.272476083088805</v>
       </c>
       <c r="P217">
-        <v>0.15436343309010481</v>
+        <v>0.15447372159929984</v>
       </c>
       <c r="Q217">
         <v>-0.39710000157356262</v>
@@ -68948,7 +68948,7 @@
         <v>0.104115543404252</v>
       </c>
       <c r="P218">
-        <v>-1.1917947270925524</v>
+        <v>-1.1888812576753436</v>
       </c>
       <c r="Q218">
         <v>1.7367000579833984</v>
@@ -69001,7 +69001,7 @@
         <v>0.11836877443633601</v>
       </c>
       <c r="P219">
-        <v>-1.9691942924296608</v>
+        <v>-1.9662518351414782</v>
       </c>
       <c r="Q219">
         <v>-1.2132999897003174</v>
@@ -69054,7 +69054,7 @@
         <v>0.69421813316085301</v>
       </c>
       <c r="P220">
-        <v>2.2113523731152633</v>
+        <v>2.2065127688255828</v>
       </c>
       <c r="Q220">
         <v>0.25290000438690186</v>
@@ -69107,7 +69107,7 @@
         <v>-0.32557426247829102</v>
       </c>
       <c r="P221">
-        <v>-0.96611902218269829</v>
+        <v>-0.97210142167438174</v>
       </c>
       <c r="Q221">
         <v>-0.40700000524520874</v>
@@ -69160,7 +69160,7 @@
         <v>0.46647486183308701</v>
       </c>
       <c r="P222">
-        <v>0.73191303431634824</v>
+        <v>0.67176304528770459</v>
       </c>
       <c r="Q222">
         <v>-0.062199998646974564</v>
@@ -69213,7 +69213,7 @@
         <v>0.68816239696811898</v>
       </c>
       <c r="P223">
-        <v>0.55832960191681891</v>
+        <v>0.46716138998825785</v>
       </c>
       <c r="Q223">
         <v>0.64020001888275147</v>
@@ -69266,7 +69266,7 @@
         <v>-0.35085819005163999</v>
       </c>
       <c r="P224">
-        <v>0.17305368615613048</v>
+        <v>0.36156815403001197</v>
       </c>
       <c r="Q224">
         <v>-3.4712998867034912</v>
@@ -69319,7 +69319,7 @@
         <v>-1.5934185292859999</v>
       </c>
       <c r="P225">
-        <v>-0.34534905095351132</v>
+        <v>-0.422242125231163</v>
       </c>
       <c r="Q225">
         <v>-2.2174999713897705</v>
@@ -69372,7 +69372,7 @@
         <v>-1.11471123894062</v>
       </c>
       <c r="P226">
-        <v>1.7869367168732087</v>
+        <v>1.8681458158544841</v>
       </c>
       <c r="Q226">
         <v>-0.96189999580383301</v>
@@ -69425,7 +69425,7 @@
         <v>0.61026945200424498</v>
       </c>
       <c r="P227">
-        <v>2.6525946903021222</v>
+        <v>2.4498710115337765</v>
       </c>
       <c r="Q227">
         <v>-2.7374999523162842</v>
@@ -69478,7 +69478,7 @@
         <v>-0.063315705954563803</v>
       </c>
       <c r="P228">
-        <v>-0.75539397624304283</v>
+        <v>-0.70840967426339963</v>
       </c>
       <c r="Q228">
         <v>0.86949998140335083</v>
@@ -69531,7 +69531,7 @@
         <v>-1.0311246888652399</v>
       </c>
       <c r="P229">
-        <v>-0.82387406148776454</v>
+        <v>-0.80328858200870512</v>
       </c>
       <c r="Q229">
         <v>0.35670000314712525</v>
@@ -69584,7 +69584,7 @@
         <v>1.5838754710096301</v>
       </c>
       <c r="P230">
-        <v>10.142119070720161</v>
+        <v>10.387271699405533</v>
       </c>
       <c r="Q230">
         <v>0.59409999847412109</v>
@@ -69637,7 +69637,7 @@
         <v>0.12637732700617399</v>
       </c>
       <c r="P231">
-        <v>-1.4408198423773468</v>
+        <v>-1.6163359116197258</v>
       </c>
       <c r="Q231">
         <v>0.33250001072883606</v>
@@ -69690,7 +69690,7 @@
         <v>-0.030581461068168801</v>
       </c>
       <c r="P232">
-        <v>0.57619193263826396</v>
+        <v>0.43361413868362231</v>
       </c>
       <c r="Q232">
         <v>0.36050000786781311</v>
@@ -69743,7 +69743,7 @@
         <v>0.55115510001755197</v>
       </c>
       <c r="P233">
-        <v>-0.68294215581264717</v>
+        <v>-0.58499327108913324</v>
       </c>
       <c r="Q233">
         <v>0.57889997959136963</v>
@@ -69796,7 +69796,7 @@
         <v>-1.4322956049919999</v>
       </c>
       <c r="P234">
-        <v>-7.0550299983675151</v>
+        <v>-6.9032819527835088</v>
       </c>
       <c r="Q234">
         <v>0.91360002756118774</v>
@@ -69849,7 +69849,7 @@
         <v>-0.970054647995516</v>
       </c>
       <c r="P235">
-        <v>-1.9157018644846886</v>
+        <v>-1.9555936821414575</v>
       </c>
       <c r="Q235">
         <v>0.12590000033378601</v>
@@ -69902,7 +69902,7 @@
         <v>-0.767638774998186</v>
       </c>
       <c r="P236">
-        <v>-3.7252460355075705</v>
+        <v>-3.7002529555556505</v>
       </c>
       <c r="Q236">
         <v>0.58710002899169922</v>
@@ -69955,7 +69955,7 @@
         <v>0.0663849444096095</v>
       </c>
       <c r="P237">
-        <v>3.7349334147197362</v>
+        <v>3.4856938749415809</v>
       </c>
       <c r="Q237">
         <v>0.092699997127056122</v>
@@ -70008,7 +70008,7 @@
         <v>-0.93081637189365796</v>
       </c>
       <c r="P238">
-        <v>-3.7612891155900949</v>
+        <v>-3.4654039342162433</v>
       </c>
       <c r="Q238">
         <v>-0.29559999704360962</v>
@@ -70061,7 +70061,7 @@
         <v>-0.78097262562492198</v>
       </c>
       <c r="P239">
-        <v>-0.58007910595442458</v>
+        <v>-0.60282766238496777</v>
       </c>
       <c r="Q239">
         <v>0.12219999730587006</v>
@@ -70114,7 +70114,7 @@
         <v>-0.91326763747777495</v>
       </c>
       <c r="P240">
-        <v>-0.63755498074099992</v>
+        <v>-0.77291551923856161</v>
       </c>
       <c r="Q240">
         <v>0.26710000634193421</v>
@@ -70167,7 +70167,7 @@
         <v>0.93716575619991105</v>
       </c>
       <c r="P241">
-        <v>3.1953020539075343</v>
+        <v>3.1605492757101712</v>
       </c>
       <c r="Q241">
         <v>0.019999999552965164</v>
@@ -70220,7 +70220,7 @@
         <v>-0.68600363106525397</v>
       </c>
       <c r="P242">
-        <v>0.85439786456311406</v>
+        <v>0.99640100444651392</v>
       </c>
       <c r="Q242">
         <v>-0.15230000019073486</v>
@@ -70273,7 +70273,7 @@
         <v>-0.74811756700286802</v>
       </c>
       <c r="P243">
-        <v>4.1343764923879549</v>
+        <v>4.0085725895120898</v>
       </c>
       <c r="Q243">
         <v>-0.18240000307559967</v>
@@ -70326,7 +70326,7 @@
         <v>0.65032714352408505</v>
       </c>
       <c r="P244">
-        <v>0.68951706337322238</v>
+        <v>0.67588863460854598</v>
       </c>
       <c r="Q244">
         <v>-0.12530000507831573</v>
@@ -70379,7 +70379,7 @@
         <v>0.25750429785530699</v>
       </c>
       <c r="P245">
-        <v>0.91214968257330265</v>
+        <v>0.88623310794938925</v>
       </c>
       <c r="Q245">
         <v>-0.16060000658035278</v>
@@ -70432,7 +70432,7 @@
         <v>0.202347720774671</v>
       </c>
       <c r="P246">
-        <v>6.627617535828426</v>
+        <v>6.6238498629011406</v>
       </c>
       <c r="Q246">
         <v>0.039099998772144318</v>
@@ -70485,7 +70485,7 @@
         <v>1.0053362512669699</v>
       </c>
       <c r="P247">
-        <v>-2.8931099779345608</v>
+        <v>-2.8307741128109494</v>
       </c>
       <c r="Q247">
         <v>-0.12710000574588776</v>
@@ -70538,7 +70538,7 @@
         <v>-0.18862327588344399</v>
       </c>
       <c r="P248">
-        <v>-0.18988011853541753</v>
+        <v>-0.33507310074034713</v>
       </c>
       <c r="Q248">
         <v>-0.048900000751018524</v>
@@ -70591,7 +70591,7 @@
         <v>-0.49941433526645202</v>
       </c>
       <c r="P249">
-        <v>1.7449881246757137</v>
+        <v>1.8872331366860187</v>
       </c>
       <c r="Q249">
         <v>-0.10000000149011612</v>
@@ -70644,7 +70644,7 @@
         <v>-1.0786244742721001</v>
       </c>
       <c r="P250">
-        <v>-2.3029599105683021</v>
+        <v>-2.2843380739940615</v>
       </c>
       <c r="Q250">
         <v>0.42399999499320984</v>
@@ -70697,7 +70697,7 @@
         <v>0.64193125510132898</v>
       </c>
       <c r="P251">
-        <v>3.3261382781122308</v>
+        <v>3.3212818784202289</v>
       </c>
       <c r="Q251">
         <v>-0.23589999973773956</v>
@@ -70750,7 +70750,7 @@
         <v>0.88580587343446004</v>
       </c>
       <c r="P252">
-        <v>4.4816429894675602</v>
+        <v>4.3279921106585464</v>
       </c>
       <c r="Q252">
         <v>0.023499999195337296</v>
@@ -70803,7 +70803,7 @@
         <v>-0.358268387777187</v>
       </c>
       <c r="P253">
-        <v>-0.68344579167467234</v>
+        <v>-0.50958889330994195</v>
       </c>
       <c r="Q253">
         <v>0.012500000186264515</v>
@@ -70856,7 +70856,7 @@
         <v>0.10993407453012199</v>
       </c>
       <c r="P254">
-        <v>2.8996473209735672</v>
+        <v>2.9577685509928777</v>
       </c>
       <c r="Q254">
         <v>0.30790001153945923</v>
@@ -70909,7 +70909,7 @@
         <v>-0.118066164428758</v>
       </c>
       <c r="P255">
-        <v>4.89432041841577</v>
+        <v>4.8699414602002324</v>
       </c>
       <c r="Q255">
         <v>1.3468999862670899</v>
@@ -70962,7 +70962,7 @@
         <v>0.55999648151576198</v>
       </c>
       <c r="P256">
-        <v>4.1976474030806985</v>
+        <v>4.1134119393441333</v>
       </c>
       <c r="Q256">
         <v>0.90219998359680176</v>
@@ -71015,7 +71015,7 @@
         <v>0.37494479908350198</v>
       </c>
       <c r="P257">
-        <v>-1.531136500675826</v>
+        <v>-1.437834370552256</v>
       </c>
       <c r="Q257">
         <v>-0.11320000141859055</v>
@@ -71068,7 +71068,7 @@
         <v>0.34437448802210402</v>
       </c>
       <c r="P258">
-        <v>6.6376099913403586</v>
+        <v>6.5073163016576396</v>
       </c>
       <c r="Q258">
         <v>0.51940000057220459</v>
@@ -71121,7 +71121,7 @@
         <v>-1.3640664753232301</v>
       </c>
       <c r="P259">
-        <v>-1.1626213510990755</v>
+        <v>-0.88613352909888143</v>
       </c>
       <c r="Q259">
         <v>-0.34020000696182251</v>
@@ -71174,7 +71174,7 @@
         <v>-0.60078135888009898</v>
       </c>
       <c r="P260">
-        <v>1.0835614020130535</v>
+        <v>1.1089055909748389</v>
       </c>
       <c r="Q260">
         <v>0.77439999580383301</v>
@@ -71227,7 +71227,7 @@
         <v>1.1404115970978099</v>
       </c>
       <c r="P261">
-        <v>5.15315549767113</v>
+        <v>4.8721855393034605</v>
       </c>
       <c r="Q261">
         <v>-1.1105999946594238</v>
@@ -71280,7 +71280,7 @@
         <v>-1.39149485575466</v>
       </c>
       <c r="P262">
-        <v>-0.31347655869634994</v>
+        <v>0.063891294725976655</v>
       </c>
       <c r="Q262">
         <v>0.049300000071525574</v>
@@ -71333,7 +71333,7 @@
         <v>2.0233891434169098</v>
       </c>
       <c r="P263">
-        <v>4.2010249851039632</v>
+        <v>3.9581469284159927</v>
       </c>
       <c r="Q263">
         <v>0.45019999146461487</v>
@@ -71386,7 +71386,7 @@
         <v>-0.72182182062844502</v>
       </c>
       <c r="P264">
-        <v>1.1792419897958892</v>
+        <v>1.2506892130869744</v>
       </c>
       <c r="Q264">
         <v>0.090700000524520874</v>
@@ -71439,7 +71439,7 @@
         <v>0.49435795565806501</v>
       </c>
       <c r="P265">
-        <v>5.0433858292433467</v>
+        <v>4.9178113271242019</v>
       </c>
       <c r="Q265">
         <v>-0.66269999742507935</v>
@@ -71492,7 +71492,7 @@
         <v>-1.2496237969888699</v>
       </c>
       <c r="P266">
-        <v>-0.11472195596417389</v>
+        <v>-0.23527462951103395</v>
       </c>
       <c r="Q266">
         <v>-0.082699999213218689</v>
@@ -71545,7 +71545,7 @@
         <v>0.68487843281565297</v>
       </c>
       <c r="P267">
-        <v>3.9469487306078017</v>
+        <v>4.0600335779578796</v>
       </c>
       <c r="Q267">
         <v>0.26179999113082886</v>
@@ -71598,7 +71598,7 @@
         <v>-0.43298938190062802</v>
       </c>
       <c r="P268">
-        <v>0.96194869140503037</v>
+        <v>0.82160845262984417</v>
       </c>
       <c r="Q268">
         <v>0.59520000219345093</v>
@@ -71651,7 +71651,7 @@
         <v>0.184239360094311</v>
       </c>
       <c r="P269">
-        <v>3.4929247568538826</v>
+        <v>3.7190575575989264</v>
       </c>
       <c r="Q269">
         <v>-0.12950000166893005</v>
@@ -71704,7 +71704,7 @@
         <v>1.24149869268636</v>
       </c>
       <c r="P270">
-        <v>4.6239210345682693</v>
+        <v>4.4861872164776742</v>
       </c>
       <c r="Q270">
         <v>0.34839999675750733</v>
@@ -71757,7 +71757,7 @@
         <v>-1.1216048647177499</v>
       </c>
       <c r="P271">
-        <v>-0.33243844434620384</v>
+        <v>-0.2247144343832097</v>
       </c>
       <c r="Q271">
         <v>-1.4881999492645264</v>
@@ -71810,7 +71810,7 @@
         <v>-0.0248850532250726</v>
       </c>
       <c r="P272">
-        <v>2.4416725612578496</v>
+        <v>2.3620958229264266</v>
       </c>
       <c r="Q272">
         <v>0.27689999341964722</v>
@@ -71863,7 +71863,7 @@
         <v>-0.83295125367727096</v>
       </c>
       <c r="P273">
-        <v>-0.24208221924233864</v>
+        <v>-0.13827966911921685</v>
       </c>
       <c r="Q273">
         <v>-0.31850001215934753</v>
@@ -71916,7 +71916,7 @@
         <v>-0.173140907742901</v>
       </c>
       <c r="P274">
-        <v>-0.03485406203428143</v>
+        <v>-0.16216685761178362</v>
       </c>
       <c r="Q274">
         <v>-1.0917999744415283</v>
@@ -71969,7 +71969,7 @@
         <v>0.611786988962853</v>
       </c>
       <c r="P275">
-        <v>4.614307600796673</v>
+        <v>4.4710255894002922</v>
       </c>
       <c r="Q275">
         <v>-0.56540000438690186</v>
@@ -72022,7 +72022,7 @@
         <v>1.37673315439235</v>
       </c>
       <c r="P276">
-        <v>4.6329225622624648</v>
+        <v>4.7728793785319033</v>
       </c>
       <c r="Q276">
         <v>-0.28830000758171082</v>
@@ -72075,7 +72075,7 @@
         <v>-0.34443546171206602</v>
       </c>
       <c r="P277">
-        <v>-2.1457242407222603</v>
+        <v>-2.2188578000343329</v>
       </c>
       <c r="Q277">
         <v>0.97339999675750733</v>
@@ -72128,7 +72128,7 @@
         <v>0.28747699964184498</v>
       </c>
       <c r="P278">
-        <v>-0.3657972439075452</v>
+        <v>-0.24687498470421443</v>
       </c>
       <c r="Q278">
         <v>0.13709999620914459</v>
@@ -72181,7 +72181,7 @@
         <v>0.59455850933239296</v>
       </c>
       <c r="P279">
-        <v>3.7810628987018316</v>
+        <v>3.7650671561300126</v>
       </c>
       <c r="Q279">
         <v>0.0043000001460313797</v>
@@ -72234,7 +72234,7 @@
         <v>0.60458454664324801</v>
       </c>
       <c r="P280">
-        <v>3.2041444418071206</v>
+        <v>3.3815605088443044</v>
       </c>
       <c r="Q280">
         <v>-0.50910001993179321</v>
@@ -72287,7 +72287,7 @@
         <v>0.33367893851719399</v>
       </c>
       <c r="P281">
-        <v>2.2580697231247151</v>
+        <v>1.9176210711340822</v>
       </c>
       <c r="Q281"/>
     </row>
@@ -72338,7 +72338,7 @@
         <v>0.46612021675492099</v>
       </c>
       <c r="P282">
-        <v>1.121107200965042</v>
+        <v>1.365288699186471</v>
       </c>
       <c r="Q282"/>
     </row>
@@ -72389,7 +72389,7 @@
         <v>-0.049319780315559003</v>
       </c>
       <c r="P283">
-        <v>0.77125581396911791</v>
+        <v>0.77204125003636792</v>
       </c>
       <c r="Q283"/>
     </row>
@@ -72440,7 +72440,7 @@
         <v>0.71157362344280095</v>
       </c>
       <c r="P284">
-        <v>0.055145778659192901</v>
+        <v>0.10181435254037408</v>
       </c>
       <c r="Q284"/>
     </row>
@@ -72491,7 +72491,7 @@
         <v>-0.74906520040563496</v>
       </c>
       <c r="P285">
-        <v>-1.5039798978170789</v>
+        <v>-1.6567007266219647</v>
       </c>
       <c r="Q285"/>
     </row>
@@ -72540,7 +72540,7 @@
         <v>-0.15022591920811501</v>
       </c>
       <c r="P286">
-        <v>2.5963819601012208</v>
+        <v>2.3819767811727348</v>
       </c>
       <c r="Q286"/>
     </row>
@@ -72589,7 +72589,7 @@
         <v>-0.113547623421913</v>
       </c>
       <c r="P287">
-        <v>-3.9623211105806497</v>
+        <v>-3.6223790037483696</v>
       </c>
       <c r="Q287"/>
     </row>
@@ -72638,7 +72638,7 @@
         <v>-0.72857304360251396</v>
       </c>
       <c r="P288">
-        <v>-2.7663438795297535</v>
+        <v>-2.8778922750304128</v>
       </c>
       <c r="Q288"/>
     </row>
@@ -72687,7 +72687,7 @@
         <v>0.29273248781672401</v>
       </c>
       <c r="P289">
-        <v>1.0251613761002694</v>
+        <v>0.98284438353854231</v>
       </c>
       <c r="Q289"/>
     </row>
@@ -72736,7 +72736,7 @@
         <v>-0.73138049541434702</v>
       </c>
       <c r="P290">
-        <v>-0.92385010288590774</v>
+        <v>-0.4754210312533011</v>
       </c>
       <c r="Q290"/>
     </row>
@@ -72785,7 +72785,7 @@
         <v>0.280547007303864</v>
       </c>
       <c r="P291">
-        <v>-2.1037238725171843</v>
+        <v>-1.7994201156222429</v>
       </c>
       <c r="Q291"/>
     </row>
@@ -72834,7 +72834,7 @@
         <v>0.54067219804824596</v>
       </c>
       <c r="P292">
-        <v>-1.2423306349780703</v>
+        <v>-1.521186079507908</v>
       </c>
       <c r="Q292"/>
     </row>
@@ -72879,7 +72879,7 @@
         <v>0.19964367359766599</v>
       </c>
       <c r="P293">
-        <v>2.5811077436853678</v>
+        <v>2.4951788837902193</v>
       </c>
       <c r="Q293"/>
     </row>
@@ -72918,7 +72918,7 @@
         <v>-1.0111584891088301</v>
       </c>
       <c r="P294">
-        <v>-4.9834970970569588</v>
+        <v>-5.1652294064975264</v>
       </c>
       <c r="Q294"/>
     </row>
@@ -72957,7 +72957,7 @@
         <v>0.79021337635382405</v>
       </c>
       <c r="P295">
-        <v>0.5428929880127692</v>
+        <v>0.80057085956966345</v>
       </c>
       <c r="Q295"/>
     </row>
@@ -72996,7 +72996,7 @@
         <v>0.31237744782893601</v>
       </c>
       <c r="P296">
-        <v>2.4177146426334844</v>
+        <v>2.2046887989513366</v>
       </c>
       <c r="Q296"/>
     </row>
@@ -73035,7 +73035,7 @@
         <v>-1.0024964843661099</v>
       </c>
       <c r="P297">
-        <v>-0.04144761444319478</v>
+        <v>-0.60068044789259734</v>
       </c>
       <c r="Q297"/>
     </row>
@@ -73072,7 +73072,7 @@
         <v>-0.086205416599256499</v>
       </c>
       <c r="P298">
-        <v>4.5256493049799422</v>
+        <v>4.9115208382522333</v>
       </c>
       <c r="Q298"/>
     </row>
@@ -73109,7 +73109,7 @@
         <v>1.0345904546971501</v>
       </c>
       <c r="P299">
-        <v>10.382822074797266</v>
+        <v>10.390790380017144</v>
       </c>
       <c r="Q299"/>
     </row>
@@ -73146,7 +73146,7 @@
         <v>0.64315214001614995</v>
       </c>
       <c r="P300">
-        <v>-0.56114932927348793</v>
+        <v>0.098698674735041792</v>
       </c>
       <c r="Q300"/>
     </row>
@@ -73183,7 +73183,7 @@
         <v>0.45110140108469698</v>
       </c>
       <c r="P301">
-        <v>2.6205830125076441</v>
+        <v>1.8240098993741327</v>
       </c>
       <c r="Q301"/>
     </row>
@@ -73220,7 +73220,7 @@
         <v>0.50136236859223005</v>
       </c>
       <c r="P302">
-        <v>-4.0613629538084819</v>
+        <v>-4.4866244530907382</v>
       </c>
       <c r="Q302"/>
     </row>
@@ -73257,7 +73257,7 @@
         <v>0.030837297150363999</v>
       </c>
       <c r="P303">
-        <v>-2.4625733834769887</v>
+        <v>-2.2690520789361006</v>
       </c>
       <c r="Q303"/>
     </row>
@@ -73294,7 +73294,7 @@
         <v>-0.43895998813499798</v>
       </c>
       <c r="P304">
-        <v>2.3732841394911382</v>
+        <v>2.3976139611011069</v>
       </c>
       <c r="Q304"/>
     </row>
@@ -73331,7 +73331,7 @@
         <v>-0.741431402273801</v>
       </c>
       <c r="P305">
-        <v>-2.1125085243347441</v>
+        <v>-2.0848019883573916</v>
       </c>
       <c r="Q305"/>
     </row>
@@ -73368,7 +73368,7 @@
         <v>-1.0904199381861699</v>
       </c>
       <c r="P306">
-        <v>-1.9151718290707336</v>
+        <v>-1.7292427490799589</v>
       </c>
       <c r="Q306"/>
     </row>
@@ -73405,7 +73405,7 @@
         <v>-0.66528642730528498</v>
       </c>
       <c r="P307">
-        <v>-1.7039736262589016</v>
+        <v>-1.4372591870451856</v>
       </c>
       <c r="Q307"/>
     </row>
@@ -73442,7 +73442,7 @@
         <v>-0.35917248737260998</v>
       </c>
       <c r="P308">
-        <v>-0.88937998010934805</v>
+        <v>-0.86545384752262256</v>
       </c>
       <c r="Q308"/>
     </row>
@@ -73479,7 +73479,7 @@
         <v>0.50926728001902499</v>
       </c>
       <c r="P309">
-        <v>2.2136870027771591</v>
+        <v>2.2698638385085763</v>
       </c>
       <c r="Q309"/>
     </row>
@@ -73516,7 +73516,7 @@
         <v>0.17913000061148501</v>
       </c>
       <c r="P310">
-        <v>3.5955353794940459</v>
+        <v>3.4826892076954765</v>
       </c>
       <c r="Q310"/>
     </row>
@@ -73547,7 +73547,7 @@
       <c r="N311"/>
       <c r="O311"/>
       <c r="P311">
-        <v>-0.31603287813247627</v>
+        <v>-0.21290569877115129</v>
       </c>
       <c r="Q311"/>
     </row>
@@ -73578,7 +73578,7 @@
       <c r="N312"/>
       <c r="O312"/>
       <c r="P312">
-        <v>-3.0974722726770452</v>
+        <v>-2.9846394288337557</v>
       </c>
       <c r="Q312"/>
     </row>
@@ -73609,7 +73609,7 @@
       <c r="N313"/>
       <c r="O313"/>
       <c r="P313">
-        <v>-0.026043718747165157</v>
+        <v>-0.0012650894076766672</v>
       </c>
       <c r="Q313"/>
     </row>
@@ -73640,7 +73640,7 @@
       <c r="N314"/>
       <c r="O314"/>
       <c r="P314">
-        <v>-0.030118429022950144</v>
+        <v>-0.64411958062403984</v>
       </c>
       <c r="Q314"/>
     </row>
@@ -73671,7 +73671,7 @@
       <c r="N315"/>
       <c r="O315"/>
       <c r="P315">
-        <v>-0.3556903691007009</v>
+        <v>-0.072568071696575087</v>
       </c>
       <c r="Q315"/>
     </row>
@@ -73702,7 +73702,7 @@
       <c r="N316"/>
       <c r="O316"/>
       <c r="P316">
-        <v>1.1405968463056195</v>
+        <v>1.4802465367563853</v>
       </c>
       <c r="Q316"/>
     </row>
@@ -73733,7 +73733,7 @@
       <c r="N317"/>
       <c r="O317"/>
       <c r="P317">
-        <v>2.4506330115857455</v>
+        <v>1.9778486490050322</v>
       </c>
       <c r="Q317"/>
     </row>
@@ -73762,7 +73762,7 @@
       <c r="N318"/>
       <c r="O318"/>
       <c r="P318">
-        <v>-2.5107609327884086</v>
+        <v>-1.8508629467737161</v>
       </c>
       <c r="Q318"/>
     </row>
@@ -73791,7 +73791,7 @@
       <c r="N319"/>
       <c r="O319"/>
       <c r="P319">
-        <v>3.0204243714259715</v>
+        <v>2.6306981881852334</v>
       </c>
       <c r="Q319"/>
     </row>
@@ -73820,7 +73820,7 @@
       <c r="N320"/>
       <c r="O320"/>
       <c r="P320">
-        <v>1.9448767098937423</v>
+        <v>1.7944592261951553</v>
       </c>
       <c r="Q320"/>
     </row>
@@ -73849,7 +73849,7 @@
       <c r="N321"/>
       <c r="O321"/>
       <c r="P321">
-        <v>-1.9959694614389818</v>
+        <v>-1.4963022276945557</v>
       </c>
       <c r="Q321"/>
     </row>
@@ -73878,7 +73878,7 @@
       <c r="N322"/>
       <c r="O322"/>
       <c r="P322">
-        <v>3.1818328964312004</v>
+        <v>2.6918164823935635</v>
       </c>
       <c r="Q322"/>
     </row>
@@ -73907,7 +73907,7 @@
       <c r="N323"/>
       <c r="O323"/>
       <c r="P323">
-        <v>2.197580548377553</v>
+        <v>2.3149056582129908</v>
       </c>
       <c r="Q323"/>
     </row>
@@ -73936,7 +73936,7 @@
       <c r="N324"/>
       <c r="O324"/>
       <c r="P324">
-        <v>-1.6881414267005137</v>
+        <v>-1.8711627659547219</v>
       </c>
       <c r="Q324"/>
     </row>
@@ -73965,7 +73965,7 @@
       <c r="N325"/>
       <c r="O325"/>
       <c r="P325">
-        <v>-2.7348932143924571</v>
+        <v>-2.6529937480607093</v>
       </c>
       <c r="Q325"/>
     </row>
@@ -73994,7 +73994,7 @@
       <c r="N326"/>
       <c r="O326"/>
       <c r="P326">
-        <v>2.4733368244428076</v>
+        <v>2.4476663552066151</v>
       </c>
       <c r="Q326"/>
     </row>
@@ -74023,7 +74023,7 @@
       <c r="N327"/>
       <c r="O327"/>
       <c r="P327">
-        <v>-3.6960100748367668</v>
+        <v>-3.5968886869390979</v>
       </c>
       <c r="Q327"/>
     </row>
@@ -74052,7 +74052,7 @@
       <c r="N328"/>
       <c r="O328"/>
       <c r="P328">
-        <v>2.2369970337995091</v>
+        <v>1.6918820260914675</v>
       </c>
       <c r="Q328"/>
     </row>
@@ -74081,7 +74081,7 @@
       <c r="N329"/>
       <c r="O329"/>
       <c r="P329">
-        <v>1.2374938691220034</v>
+        <v>1.5713980962376568</v>
       </c>
       <c r="Q329"/>
     </row>
@@ -74108,7 +74108,7 @@
       <c r="N330"/>
       <c r="O330"/>
       <c r="P330">
-        <v>1.6093966851653128</v>
+        <v>1.6105278204299811</v>
       </c>
       <c r="Q330"/>
     </row>
@@ -74135,7 +74135,7 @@
       <c r="N331"/>
       <c r="O331"/>
       <c r="P331">
-        <v>-2.0566205993772355</v>
+        <v>-1.4936395075322499</v>
       </c>
       <c r="Q331"/>
     </row>
@@ -74162,7 +74162,7 @@
       <c r="N332"/>
       <c r="O332"/>
       <c r="P332">
-        <v>2.8109616869644731</v>
+        <v>2.0341755667951982</v>
       </c>
       <c r="Q332"/>
     </row>
@@ -74189,7 +74189,7 @@
       <c r="N333"/>
       <c r="O333"/>
       <c r="P333">
-        <v>0.92417261648675009</v>
+        <v>1.5405096189869425</v>
       </c>
       <c r="Q333"/>
     </row>
@@ -74216,7 +74216,7 @@
       <c r="N334"/>
       <c r="O334"/>
       <c r="P334">
-        <v>-0.42463804221184287</v>
+        <v>-0.58207712778571408</v>
       </c>
       <c r="Q334"/>
     </row>
@@ -74243,7 +74243,7 @@
       <c r="N335"/>
       <c r="O335"/>
       <c r="P335">
-        <v>-0.5463751983413615</v>
+        <v>-1.2072541180246972</v>
       </c>
       <c r="Q335"/>
     </row>
@@ -74270,7 +74270,7 @@
       <c r="N336"/>
       <c r="O336"/>
       <c r="P336">
-        <v>2.5759458833846196</v>
+        <v>3.0749234158879908</v>
       </c>
       <c r="Q336"/>
     </row>
@@ -74297,7 +74297,7 @@
       <c r="N337"/>
       <c r="O337"/>
       <c r="P337">
-        <v>-0.71065172131762777</v>
+        <v>-0.60734140845905105</v>
       </c>
       <c r="Q337"/>
     </row>
@@ -74324,7 +74324,7 @@
       <c r="N338"/>
       <c r="O338"/>
       <c r="P338">
-        <v>5.33856485416546</v>
+        <v>5.2592753034355875</v>
       </c>
       <c r="Q338"/>
     </row>
@@ -74351,7 +74351,7 @@
       <c r="N339"/>
       <c r="O339"/>
       <c r="P339">
-        <v>2.931924928614067</v>
+        <v>2.1064810068876567</v>
       </c>
       <c r="Q339"/>
     </row>
@@ -74378,7 +74378,7 @@
       <c r="N340"/>
       <c r="O340"/>
       <c r="P340">
-        <v>3.8619259652446631</v>
+        <v>4.5113508159700366</v>
       </c>
       <c r="Q340"/>
     </row>
@@ -74405,7 +74405,7 @@
       <c r="N341"/>
       <c r="O341"/>
       <c r="P341">
-        <v>3.2807967386574104</v>
+        <v>3.081874490761277</v>
       </c>
       <c r="Q341"/>
     </row>
@@ -74432,7 +74432,7 @@
       <c r="N342"/>
       <c r="O342"/>
       <c r="P342">
-        <v>-1.131951225521632</v>
+        <v>-1.2933791998150053</v>
       </c>
       <c r="Q342"/>
     </row>
@@ -74459,7 +74459,7 @@
       <c r="N343"/>
       <c r="O343"/>
       <c r="P343">
-        <v>5.5726433134823665</v>
+        <v>5.3821984368972942</v>
       </c>
       <c r="Q343"/>
     </row>
@@ -74486,7 +74486,7 @@
       <c r="N344"/>
       <c r="O344"/>
       <c r="P344">
-        <v>-2.7593098455178122</v>
+        <v>-2.4304514431262589</v>
       </c>
       <c r="Q344"/>
     </row>
@@ -74513,7 +74513,7 @@
       <c r="N345"/>
       <c r="O345"/>
       <c r="P345">
-        <v>3.3386466415855036</v>
+        <v>2.8919839014075412</v>
       </c>
       <c r="Q345"/>
     </row>
@@ -74540,7 +74540,7 @@
       <c r="N346"/>
       <c r="O346"/>
       <c r="P346">
-        <v>-2.257501828520085</v>
+        <v>-0.033610145343398568</v>
       </c>
       <c r="Q346"/>
     </row>
@@ -74567,7 +74567,7 @@
       <c r="N347"/>
       <c r="O347"/>
       <c r="P347">
-        <v>0.03775153993334035</v>
+        <v>-0.073275531573003372</v>
       </c>
       <c r="Q347"/>
     </row>
@@ -74594,7 +74594,7 @@
       <c r="N348"/>
       <c r="O348"/>
       <c r="P348">
-        <v>0.83792925138737639</v>
+        <v>1.6550094441809584</v>
       </c>
       <c r="Q348"/>
     </row>
@@ -74621,7 +74621,7 @@
       <c r="N349"/>
       <c r="O349"/>
       <c r="P349">
-        <v>4.5300258486280391</v>
+        <v>3.8685892950486105</v>
       </c>
       <c r="Q349"/>
     </row>
@@ -74644,7 +74644,7 @@
       <c r="N350"/>
       <c r="O350"/>
       <c r="P350">
-        <v>-4.3130437339044283</v>
+        <v>-2.7007788956600285</v>
       </c>
       <c r="Q350"/>
     </row>
@@ -74667,7 +74667,7 @@
       <c r="N351"/>
       <c r="O351"/>
       <c r="P351">
-        <v>-3.0279678623988886</v>
+        <v>-3.0006531133516301</v>
       </c>
       <c r="Q351"/>
     </row>
@@ -74690,7 +74690,7 @@
       <c r="N352"/>
       <c r="O352"/>
       <c r="P352">
-        <v>0.30020802189601636</v>
+        <v>0.94039367458965906</v>
       </c>
       <c r="Q352"/>
     </row>
@@ -74713,7 +74713,7 @@
       <c r="N353"/>
       <c r="O353"/>
       <c r="P353">
-        <v>-0.92298771091610377</v>
+        <v>0.14599224175573689</v>
       </c>
       <c r="Q353"/>
     </row>
@@ -74736,7 +74736,7 @@
       <c r="N354"/>
       <c r="O354"/>
       <c r="P354">
-        <v>-0.56841676657788498</v>
+        <v>-3.9449314120471177</v>
       </c>
       <c r="Q354"/>
     </row>
@@ -74759,7 +74759,7 @@
       <c r="N355"/>
       <c r="O355"/>
       <c r="P355">
-        <v>-1.5157244103927934</v>
+        <v>3.7390373660888163</v>
       </c>
       <c r="Q355"/>
     </row>
@@ -74782,9 +74782,124 @@
       <c r="N356"/>
       <c r="O356"/>
       <c r="P356">
-        <v>0.94951913742381366</v>
+        <v>1.3563584019305437</v>
       </c>
       <c r="Q356"/>
+    </row>
+    <row r="357">
+      <c r="A357" s="1">
+        <v>45200</v>
+      </c>
+      <c r="B357"/>
+      <c r="C357"/>
+      <c r="D357"/>
+      <c r="E357"/>
+      <c r="F357"/>
+      <c r="G357"/>
+      <c r="H357"/>
+      <c r="I357"/>
+      <c r="J357"/>
+      <c r="K357"/>
+      <c r="L357"/>
+      <c r="M357"/>
+      <c r="N357"/>
+      <c r="O357"/>
+      <c r="P357">
+        <v>5.724144618026993</v>
+      </c>
+      <c r="Q357"/>
+    </row>
+    <row r="358">
+      <c r="A358" s="1">
+        <v>45292</v>
+      </c>
+      <c r="B358"/>
+      <c r="C358"/>
+      <c r="D358"/>
+      <c r="E358"/>
+      <c r="F358"/>
+      <c r="G358"/>
+      <c r="H358"/>
+      <c r="I358"/>
+      <c r="J358"/>
+      <c r="K358"/>
+      <c r="L358"/>
+      <c r="M358"/>
+      <c r="N358"/>
+      <c r="O358"/>
+      <c r="P358">
+        <v>0.18797492496670931</v>
+      </c>
+      <c r="Q358"/>
+    </row>
+    <row r="359">
+      <c r="A359" s="1">
+        <v>45383</v>
+      </c>
+      <c r="B359"/>
+      <c r="C359"/>
+      <c r="D359"/>
+      <c r="E359"/>
+      <c r="F359"/>
+      <c r="G359"/>
+      <c r="H359"/>
+      <c r="I359"/>
+      <c r="J359"/>
+      <c r="K359"/>
+      <c r="L359"/>
+      <c r="M359"/>
+      <c r="N359"/>
+      <c r="O359"/>
+      <c r="P359">
+        <v>-1.2232092571503448</v>
+      </c>
+      <c r="Q359"/>
+    </row>
+    <row r="360">
+      <c r="A360" s="1">
+        <v>45474</v>
+      </c>
+      <c r="B360"/>
+      <c r="C360"/>
+      <c r="D360"/>
+      <c r="E360"/>
+      <c r="F360"/>
+      <c r="G360"/>
+      <c r="H360"/>
+      <c r="I360"/>
+      <c r="J360"/>
+      <c r="K360"/>
+      <c r="L360"/>
+      <c r="M360"/>
+      <c r="N360"/>
+      <c r="O360"/>
+      <c r="P360">
+        <v>0.46918901918977562</v>
+      </c>
+      <c r="Q360"/>
+    </row>
+    <row r="361">
+      <c r="A361" s="1">
+        <v>45566</v>
+      </c>
+      <c r="B361"/>
+      <c r="C361"/>
+      <c r="D361"/>
+      <c r="E361"/>
+      <c r="F361"/>
+      <c r="G361"/>
+      <c r="H361"/>
+      <c r="I361"/>
+      <c r="J361"/>
+      <c r="K361"/>
+      <c r="L361"/>
+      <c r="M361"/>
+      <c r="N361"/>
+      <c r="O361"/>
+      <c r="P361">
+        <v>-0.20920168148968887</v>
+      </c>
+      <c r="Q361"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
